--- a/Data Sheets/Sandbox.xlsx
+++ b/Data Sheets/Sandbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\themi\AppData\LocalLow\Deep Water Studio\UBOAT\Mods\wip-expanded-convoys-and-shipping-lanes\Data Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663D368C-76F9-4BEB-8C88-11EAAD0F64FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8948A8-9334-49F7-B623-58E6EA550536}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="5040" windowWidth="23340" windowHeight="16140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14970" yWindow="735" windowWidth="23340" windowHeight="16140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="647">
   <si>
     <t>Group Name</t>
   </si>
@@ -1886,6 +1886,93 @@
   </si>
   <si>
     <t>GB,IE</t>
+  </si>
+  <si>
+    <t>Air Patrol</t>
+  </si>
+  <si>
+    <t>Aircraft (0, 1, 0.15)</t>
+  </si>
+  <si>
+    <t>RAF Inverness</t>
+  </si>
+  <si>
+    <t>RAF Norwich</t>
+  </si>
+  <si>
+    <t>RAF Freetown</t>
+  </si>
+  <si>
+    <t>Freetown Air Patrol</t>
+  </si>
+  <si>
+    <t>RAF Inverness  Air Patrol</t>
+  </si>
+  <si>
+    <t>RAF Norwich  Air Patrol</t>
+  </si>
+  <si>
+    <t>EK:1,EJ:1,DT:0.5,DU:0.5,ET:1,ES:1,EU:1,EV:0.5,FF:0.5,FE:0.5</t>
+  </si>
+  <si>
+    <t>AN:1,BF:1,AF:1</t>
+  </si>
+  <si>
+    <t>CFB Gander</t>
+  </si>
+  <si>
+    <t>CFB Gander Air Patrol</t>
+  </si>
+  <si>
+    <t>BB:1,BC:1,CD:0.5,CC:1,CB:1,AJ:1</t>
+  </si>
+  <si>
+    <t>Langley Air Force Base</t>
+  </si>
+  <si>
+    <t>Langley Air Patrol</t>
+  </si>
+  <si>
+    <t>Miami Army Airfield</t>
+  </si>
+  <si>
+    <t>Miami Army Air Patrol</t>
+  </si>
+  <si>
+    <t>DB:1,DM:0.5,DC:1,DL:1,DA:1,DN:0.5</t>
+  </si>
+  <si>
+    <t>DC:1,DD:1,CB:1,CA:1</t>
+  </si>
+  <si>
+    <t>Carrier-Borne Aircraft (0, 1, 0.15)</t>
+  </si>
+  <si>
+    <t>RAF St. Eval</t>
+  </si>
+  <si>
+    <t>BF:1,AM:1,AL:1,BE:1,AK:1,BD:1</t>
+  </si>
+  <si>
+    <t>RAF Gibraltar</t>
+  </si>
+  <si>
+    <t>CG:1,CH:1,DH:1,CF:1,DT:1</t>
+  </si>
+  <si>
+    <t>RAF Dundee</t>
+  </si>
+  <si>
+    <t>AN:1,AM:1,AF:1,AE:1</t>
+  </si>
+  <si>
+    <t>RAF St. Eval Air Patrol #2</t>
+  </si>
+  <si>
+    <t>Gibraltar Air Patrol #2</t>
+  </si>
+  <si>
+    <t>RAF Dundee Air Patrol #2</t>
   </si>
 </sst>
 </file>
@@ -2060,7 +2147,47 @@
     <cellStyle name="Heading 3 2" xfId="2" xr:uid="{F3E3DDC0-5B5E-4A2E-BA49-43F61946C9B9}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="89">
+  <dxfs count="93">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3332,10 +3459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B25EC17-B91B-4114-AB65-39D2D988A5E8}">
-  <dimension ref="A1:L456"/>
+  <dimension ref="A1:L457"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD48"/>
+    <sheetView topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6101,86 +6228,84 @@
         <v>541</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-    </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    <row r="102" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="B102" s="23">
+        <v>14458</v>
+      </c>
+      <c r="C102" s="17">
+        <v>0</v>
+      </c>
+      <c r="D102" s="17">
+        <v>1</v>
+      </c>
+      <c r="E102" s="17">
+        <v>0</v>
+      </c>
+      <c r="F102" s="17">
+        <v>0</v>
+      </c>
+      <c r="I102" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>431</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B104" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C103" s="15" t="s">
+      <c r="C104" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D103" s="15" t="s">
+      <c r="D104" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E103" s="15" t="s">
+      <c r="E104" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F103" s="15" t="s">
+      <c r="F104" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G103" s="15" t="s">
+      <c r="G104" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H103" s="15" t="s">
+      <c r="H104" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I103" s="15" t="s">
+      <c r="I104" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J103" s="15" t="s">
+      <c r="J104" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K103" s="15" t="s">
+      <c r="K104" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B104" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C104" s="7">
-        <v>0</v>
-      </c>
-      <c r="D104" s="7">
-        <v>1</v>
-      </c>
-      <c r="E104" s="7">
-        <v>0</v>
-      </c>
-      <c r="F104" s="7">
-        <v>0</v>
-      </c>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J104" s="6"/>
-      <c r="K104" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="B105" s="14">
         <v>14489</v>
@@ -6204,12 +6329,12 @@
       </c>
       <c r="J105" s="6"/>
       <c r="K105" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B106" s="14">
         <v>14489</v>
@@ -6233,12 +6358,12 @@
       </c>
       <c r="J106" s="6"/>
       <c r="K106" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B107" s="14">
         <v>14489</v>
@@ -6267,10 +6392,10 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B108" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C108" s="7">
         <v>0</v>
@@ -6291,15 +6416,15 @@
       </c>
       <c r="J108" s="6"/>
       <c r="K108" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B109" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C109" s="7">
         <v>0</v>
@@ -6320,12 +6445,12 @@
       </c>
       <c r="J109" s="6"/>
       <c r="K109" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B110" s="14">
         <v>14458</v>
@@ -6349,12 +6474,12 @@
       </c>
       <c r="J110" s="6"/>
       <c r="K110" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="B111" s="14">
         <v>14458</v>
@@ -6363,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="D111" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E111" s="7">
         <v>0</v>
@@ -6374,16 +6499,16 @@
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
       <c r="I111" s="6" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="J111" s="6"/>
       <c r="K111" s="6" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B112" s="14">
         <v>14458</v>
@@ -6407,12 +6532,12 @@
       </c>
       <c r="J112" s="6"/>
       <c r="K112" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B113" s="14">
         <v>14458</v>
@@ -6436,12 +6561,12 @@
       </c>
       <c r="J113" s="6"/>
       <c r="K113" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B114" s="14">
         <v>14458</v>
@@ -6465,12 +6590,12 @@
       </c>
       <c r="J114" s="6"/>
       <c r="K114" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B115" s="14">
         <v>14458</v>
@@ -6494,21 +6619,21 @@
       </c>
       <c r="J115" s="6"/>
       <c r="K115" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B116" s="14">
-        <v>14824</v>
+        <v>14458</v>
       </c>
       <c r="C116" s="7">
         <v>0</v>
       </c>
       <c r="D116" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E116" s="7">
         <v>0</v>
@@ -6523,15 +6648,15 @@
       </c>
       <c r="J116" s="6"/>
       <c r="K116" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B117" s="14">
-        <v>14885</v>
+        <v>14824</v>
       </c>
       <c r="C117" s="7">
         <v>0</v>
@@ -6552,15 +6677,15 @@
       </c>
       <c r="J117" s="6"/>
       <c r="K117" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B118" s="14">
-        <v>14458</v>
+        <v>14885</v>
       </c>
       <c r="C118" s="7">
         <v>0</v>
@@ -6581,102 +6706,102 @@
       </c>
       <c r="J118" s="6"/>
       <c r="K118" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
+      <c r="A119" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B119" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C119" s="7">
+        <v>0</v>
+      </c>
+      <c r="D119" s="7">
+        <v>1</v>
+      </c>
+      <c r="E119" s="7">
+        <v>0</v>
+      </c>
+      <c r="F119" s="7">
+        <v>0</v>
+      </c>
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
-      <c r="I119" s="6"/>
+      <c r="I119" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-    </row>
-    <row r="120" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="7"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="15"/>
-      <c r="K120" s="15"/>
+      <c r="K119" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="6"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
     </row>
     <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="A121" s="7"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="15"/>
+    </row>
+    <row r="122" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
         <v>432</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B122" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C121" s="15" t="s">
+      <c r="C122" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D121" s="15" t="s">
+      <c r="D122" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E121" s="15" t="s">
+      <c r="E122" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F121" s="15" t="s">
+      <c r="F122" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G121" s="15" t="s">
+      <c r="G122" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H121" s="15" t="s">
+      <c r="H122" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I121" s="15" t="s">
+      <c r="I122" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J121" s="15" t="s">
+      <c r="J122" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K121" s="15" t="s">
+      <c r="K122" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B122" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C122" s="7">
-        <v>0</v>
-      </c>
-      <c r="D122" s="7">
-        <v>1</v>
-      </c>
-      <c r="E122" s="7">
-        <v>0</v>
-      </c>
-      <c r="F122" s="7">
-        <v>0</v>
-      </c>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J122" s="6"/>
-      <c r="K122" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="B123" s="14">
         <v>14489</v>
@@ -6700,12 +6825,12 @@
       </c>
       <c r="J123" s="6"/>
       <c r="K123" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B124" s="14">
         <v>14489</v>
@@ -6729,12 +6854,12 @@
       </c>
       <c r="J124" s="6"/>
       <c r="K124" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B125" s="14">
         <v>14489</v>
@@ -6763,10 +6888,10 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B126" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C126" s="7">
         <v>0</v>
@@ -6787,15 +6912,15 @@
       </c>
       <c r="J126" s="6"/>
       <c r="K126" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B127" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C127" s="7">
         <v>0</v>
@@ -6816,12 +6941,12 @@
       </c>
       <c r="J127" s="6"/>
       <c r="K127" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B128" s="14">
         <v>14458</v>
@@ -6845,12 +6970,12 @@
       </c>
       <c r="J128" s="6"/>
       <c r="K128" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="B129" s="14">
         <v>14458</v>
@@ -6859,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="D129" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E129" s="7">
         <v>0</v>
@@ -6870,16 +6995,16 @@
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
       <c r="I129" s="6" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="J129" s="6"/>
       <c r="K129" s="6" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B130" s="14">
         <v>14458</v>
@@ -6903,12 +7028,12 @@
       </c>
       <c r="J130" s="6"/>
       <c r="K130" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B131" s="14">
         <v>14458</v>
@@ -6932,12 +7057,12 @@
       </c>
       <c r="J131" s="6"/>
       <c r="K131" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B132" s="14">
         <v>14458</v>
@@ -6961,12 +7086,12 @@
       </c>
       <c r="J132" s="6"/>
       <c r="K132" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B133" s="14">
         <v>14458</v>
@@ -6990,21 +7115,21 @@
       </c>
       <c r="J133" s="6"/>
       <c r="K133" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B134" s="14">
-        <v>14824</v>
+        <v>14458</v>
       </c>
       <c r="C134" s="7">
         <v>0</v>
       </c>
       <c r="D134" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E134" s="7">
         <v>0</v>
@@ -7019,15 +7144,15 @@
       </c>
       <c r="J134" s="6"/>
       <c r="K134" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B135" s="14">
-        <v>14885</v>
+        <v>14824</v>
       </c>
       <c r="C135" s="7">
         <v>0</v>
@@ -7048,15 +7173,15 @@
       </c>
       <c r="J135" s="6"/>
       <c r="K135" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B136" s="14">
-        <v>14458</v>
+        <v>14885</v>
       </c>
       <c r="C136" s="7">
         <v>0</v>
@@ -7077,88 +7202,90 @@
       </c>
       <c r="J136" s="6"/>
       <c r="K136" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="6"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
+      <c r="A137" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B137" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C137" s="7">
+        <v>0</v>
+      </c>
+      <c r="D137" s="7">
+        <v>1</v>
+      </c>
+      <c r="E137" s="7">
+        <v>0</v>
+      </c>
+      <c r="F137" s="7">
+        <v>0</v>
+      </c>
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
-      <c r="I137" s="6"/>
+      <c r="I137" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="J137" s="6"/>
-      <c r="K137" s="6"/>
-    </row>
-    <row r="138" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="K137" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="6"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+    </row>
+    <row r="139" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>433</v>
       </c>
-      <c r="B138" s="15" t="s">
+      <c r="B139" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C138" s="15" t="s">
+      <c r="C139" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D138" s="15" t="s">
+      <c r="D139" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E138" s="15" t="s">
+      <c r="E139" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F138" s="15" t="s">
+      <c r="F139" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G138" s="15" t="s">
+      <c r="G139" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H138" s="15" t="s">
+      <c r="H139" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I138" s="15" t="s">
+      <c r="I139" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J138" s="15" t="s">
+      <c r="J139" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K138" s="15" t="s">
+      <c r="K139" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
+    <row r="140" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B139" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C139" s="7">
-        <v>0</v>
-      </c>
-      <c r="D139" s="7">
-        <v>1</v>
-      </c>
-      <c r="E139" s="7">
-        <v>0</v>
-      </c>
-      <c r="F139" s="7">
-        <v>0</v>
-      </c>
-      <c r="I139" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J139" s="6"/>
-      <c r="K139" s="6" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
-        <v>406</v>
-      </c>
       <c r="B140" s="14">
         <v>14489</v>
       </c>
@@ -7174,19 +7301,17 @@
       <c r="F140" s="7">
         <v>0</v>
       </c>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
       <c r="I140" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J140" s="6"/>
       <c r="K140" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B141" s="14">
         <v>14489</v>
@@ -7210,12 +7335,12 @@
       </c>
       <c r="J141" s="6"/>
       <c r="K141" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B142" s="14">
         <v>14489</v>
@@ -7244,10 +7369,10 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B143" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C143" s="7">
         <v>0</v>
@@ -7268,15 +7393,15 @@
       </c>
       <c r="J143" s="6"/>
       <c r="K143" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B144" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C144" s="7">
         <v>0</v>
@@ -7297,12 +7422,12 @@
       </c>
       <c r="J144" s="6"/>
       <c r="K144" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B145" s="14">
         <v>14458</v>
@@ -7326,12 +7451,12 @@
       </c>
       <c r="J145" s="6"/>
       <c r="K145" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="B146" s="14">
         <v>14458</v>
@@ -7340,7 +7465,7 @@
         <v>0</v>
       </c>
       <c r="D146" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E146" s="7">
         <v>0</v>
@@ -7351,16 +7476,16 @@
       <c r="G146" s="7"/>
       <c r="H146" s="7"/>
       <c r="I146" s="6" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="J146" s="6"/>
       <c r="K146" s="6" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B147" s="14">
         <v>14458</v>
@@ -7384,12 +7509,12 @@
       </c>
       <c r="J147" s="6"/>
       <c r="K147" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B148" s="14">
         <v>14458</v>
@@ -7413,12 +7538,12 @@
       </c>
       <c r="J148" s="6"/>
       <c r="K148" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B149" s="14">
         <v>14458</v>
@@ -7442,12 +7567,12 @@
       </c>
       <c r="J149" s="6"/>
       <c r="K149" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B150" s="14">
         <v>14458</v>
@@ -7471,21 +7596,21 @@
       </c>
       <c r="J150" s="6"/>
       <c r="K150" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B151" s="14">
-        <v>14824</v>
+        <v>14458</v>
       </c>
       <c r="C151" s="7">
         <v>0</v>
       </c>
       <c r="D151" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E151" s="7">
         <v>0</v>
@@ -7500,15 +7625,15 @@
       </c>
       <c r="J151" s="6"/>
       <c r="K151" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B152" s="14">
-        <v>14885</v>
+        <v>14824</v>
       </c>
       <c r="C152" s="7">
         <v>0</v>
@@ -7529,15 +7654,15 @@
       </c>
       <c r="J152" s="6"/>
       <c r="K152" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B153" s="14">
-        <v>14458</v>
+        <v>14885</v>
       </c>
       <c r="C153" s="7">
         <v>0</v>
@@ -7558,89 +7683,89 @@
       </c>
       <c r="J153" s="6"/>
       <c r="K153" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="6"/>
-      <c r="B154" s="14"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
+      <c r="A154" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B154" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C154" s="7">
+        <v>0</v>
+      </c>
+      <c r="D154" s="7">
+        <v>1</v>
+      </c>
+      <c r="E154" s="7">
+        <v>0</v>
+      </c>
+      <c r="F154" s="7">
+        <v>0</v>
+      </c>
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
-      <c r="I154" s="6"/>
+      <c r="I154" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="J154" s="6"/>
-      <c r="K154" s="6"/>
-    </row>
-    <row r="155" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+      <c r="K154" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="6"/>
+      <c r="B155" s="14"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+    </row>
+    <row r="156" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>434</v>
       </c>
-      <c r="B155" s="15" t="s">
+      <c r="B156" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C155" s="15" t="s">
+      <c r="C156" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D155" s="15" t="s">
+      <c r="D156" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E155" s="15" t="s">
+      <c r="E156" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F155" s="15" t="s">
+      <c r="F156" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G155" s="15" t="s">
+      <c r="G156" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H155" s="15" t="s">
+      <c r="H156" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I155" s="15" t="s">
+      <c r="I156" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J155" s="15" t="s">
+      <c r="J156" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K155" s="15" t="s">
+      <c r="K156" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B156" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C156" s="7">
-        <v>0</v>
-      </c>
-      <c r="D156" s="7">
-        <v>1</v>
-      </c>
-      <c r="E156" s="7">
-        <v>0</v>
-      </c>
-      <c r="F156" s="7">
-        <v>0</v>
-      </c>
-      <c r="G156" s="7"/>
-      <c r="H156" s="7"/>
-      <c r="I156" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J156" s="6"/>
-      <c r="K156" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="B157" s="14">
         <v>14489</v>
@@ -7664,12 +7789,12 @@
       </c>
       <c r="J157" s="6"/>
       <c r="K157" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B158" s="14">
         <v>14489</v>
@@ -7693,12 +7818,12 @@
       </c>
       <c r="J158" s="6"/>
       <c r="K158" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B159" s="14">
         <v>14489</v>
@@ -7727,10 +7852,10 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B160" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C160" s="7">
         <v>0</v>
@@ -7751,15 +7876,15 @@
       </c>
       <c r="J160" s="6"/>
       <c r="K160" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B161" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C161" s="7">
         <v>0</v>
@@ -7780,12 +7905,12 @@
       </c>
       <c r="J161" s="6"/>
       <c r="K161" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B162" s="14">
         <v>14458</v>
@@ -7809,12 +7934,12 @@
       </c>
       <c r="J162" s="6"/>
       <c r="K162" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="B163" s="14">
         <v>14458</v>
@@ -7823,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="D163" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E163" s="7">
         <v>0</v>
@@ -7834,16 +7959,16 @@
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
       <c r="I163" s="6" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="J163" s="6"/>
       <c r="K163" s="6" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B164" s="14">
         <v>14458</v>
@@ -7867,12 +7992,12 @@
       </c>
       <c r="J164" s="6"/>
       <c r="K164" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B165" s="14">
         <v>14458</v>
@@ -7896,12 +8021,12 @@
       </c>
       <c r="J165" s="6"/>
       <c r="K165" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B166" s="14">
         <v>14458</v>
@@ -7925,12 +8050,12 @@
       </c>
       <c r="J166" s="6"/>
       <c r="K166" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B167" s="14">
         <v>14458</v>
@@ -7954,21 +8079,21 @@
       </c>
       <c r="J167" s="6"/>
       <c r="K167" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B168" s="14">
-        <v>14824</v>
+        <v>14458</v>
       </c>
       <c r="C168" s="7">
         <v>0</v>
       </c>
       <c r="D168" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E168" s="7">
         <v>0</v>
@@ -7983,15 +8108,15 @@
       </c>
       <c r="J168" s="6"/>
       <c r="K168" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B169" s="14">
-        <v>14885</v>
+        <v>14824</v>
       </c>
       <c r="C169" s="7">
         <v>0</v>
@@ -8012,15 +8137,15 @@
       </c>
       <c r="J169" s="6"/>
       <c r="K169" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B170" s="14">
-        <v>14458</v>
+        <v>14885</v>
       </c>
       <c r="C170" s="7">
         <v>0</v>
@@ -8041,89 +8166,89 @@
       </c>
       <c r="J170" s="6"/>
       <c r="K170" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="6"/>
-      <c r="B171" s="14"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="7"/>
-      <c r="F171" s="7"/>
+      <c r="A171" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B171" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C171" s="7">
+        <v>0</v>
+      </c>
+      <c r="D171" s="7">
+        <v>1</v>
+      </c>
+      <c r="E171" s="7">
+        <v>0</v>
+      </c>
+      <c r="F171" s="7">
+        <v>0</v>
+      </c>
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
-      <c r="I171" s="6"/>
+      <c r="I171" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="J171" s="6"/>
-      <c r="K171" s="6"/>
-    </row>
-    <row r="172" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+      <c r="K171" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="6"/>
+      <c r="B172" s="14"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="6"/>
+      <c r="J172" s="6"/>
+      <c r="K172" s="6"/>
+    </row>
+    <row r="173" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
         <v>435</v>
       </c>
-      <c r="B172" s="15" t="s">
+      <c r="B173" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C172" s="15" t="s">
+      <c r="C173" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D172" s="15" t="s">
+      <c r="D173" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E172" s="15" t="s">
+      <c r="E173" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F172" s="15" t="s">
+      <c r="F173" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G172" s="15" t="s">
+      <c r="G173" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H172" s="15" t="s">
+      <c r="H173" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I172" s="15" t="s">
+      <c r="I173" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J172" s="15" t="s">
+      <c r="J173" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K172" s="15" t="s">
+      <c r="K173" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B173" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C173" s="7">
-        <v>0</v>
-      </c>
-      <c r="D173" s="7">
-        <v>1</v>
-      </c>
-      <c r="E173" s="7">
-        <v>0</v>
-      </c>
-      <c r="F173" s="7">
-        <v>0</v>
-      </c>
-      <c r="G173" s="7"/>
-      <c r="H173" s="7"/>
-      <c r="I173" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J173" s="6"/>
-      <c r="K173" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="B174" s="14">
         <v>14489</v>
@@ -8147,12 +8272,12 @@
       </c>
       <c r="J174" s="6"/>
       <c r="K174" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B175" s="14">
         <v>14489</v>
@@ -8176,12 +8301,12 @@
       </c>
       <c r="J175" s="6"/>
       <c r="K175" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B176" s="14">
         <v>14489</v>
@@ -8210,10 +8335,10 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B177" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C177" s="7">
         <v>0</v>
@@ -8234,15 +8359,15 @@
       </c>
       <c r="J177" s="6"/>
       <c r="K177" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B178" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C178" s="7">
         <v>0</v>
@@ -8263,12 +8388,12 @@
       </c>
       <c r="J178" s="6"/>
       <c r="K178" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B179" s="14">
         <v>14458</v>
@@ -8292,12 +8417,12 @@
       </c>
       <c r="J179" s="6"/>
       <c r="K179" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="B180" s="14">
         <v>14458</v>
@@ -8306,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="D180" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E180" s="7">
         <v>0</v>
@@ -8317,16 +8442,16 @@
       <c r="G180" s="7"/>
       <c r="H180" s="7"/>
       <c r="I180" s="6" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="J180" s="6"/>
       <c r="K180" s="6" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B181" s="14">
         <v>14458</v>
@@ -8350,12 +8475,12 @@
       </c>
       <c r="J181" s="6"/>
       <c r="K181" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B182" s="14">
         <v>14458</v>
@@ -8379,12 +8504,12 @@
       </c>
       <c r="J182" s="6"/>
       <c r="K182" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B183" s="14">
         <v>14458</v>
@@ -8408,12 +8533,12 @@
       </c>
       <c r="J183" s="6"/>
       <c r="K183" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B184" s="14">
         <v>14458</v>
@@ -8437,21 +8562,21 @@
       </c>
       <c r="J184" s="6"/>
       <c r="K184" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B185" s="14">
-        <v>14824</v>
+        <v>14458</v>
       </c>
       <c r="C185" s="7">
         <v>0</v>
       </c>
       <c r="D185" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E185" s="7">
         <v>0</v>
@@ -8466,15 +8591,15 @@
       </c>
       <c r="J185" s="6"/>
       <c r="K185" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B186" s="14">
-        <v>14885</v>
+        <v>14824</v>
       </c>
       <c r="C186" s="7">
         <v>0</v>
@@ -8495,15 +8620,15 @@
       </c>
       <c r="J186" s="6"/>
       <c r="K186" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B187" s="14">
-        <v>14458</v>
+        <v>14885</v>
       </c>
       <c r="C187" s="7">
         <v>0</v>
@@ -8524,89 +8649,89 @@
       </c>
       <c r="J187" s="6"/>
       <c r="K187" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="6"/>
-      <c r="B188" s="14"/>
-      <c r="C188" s="7"/>
-      <c r="D188" s="7"/>
-      <c r="E188" s="7"/>
-      <c r="F188" s="7"/>
+      <c r="A188" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B188" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C188" s="7">
+        <v>0</v>
+      </c>
+      <c r="D188" s="7">
+        <v>1</v>
+      </c>
+      <c r="E188" s="7">
+        <v>0</v>
+      </c>
+      <c r="F188" s="7">
+        <v>0</v>
+      </c>
       <c r="G188" s="7"/>
       <c r="H188" s="7"/>
-      <c r="I188" s="6"/>
+      <c r="I188" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="J188" s="6"/>
-      <c r="K188" s="6"/>
-    </row>
-    <row r="189" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+      <c r="K188" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="6"/>
+      <c r="B189" s="14"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="6"/>
+      <c r="J189" s="6"/>
+      <c r="K189" s="6"/>
+    </row>
+    <row r="190" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
         <v>436</v>
       </c>
-      <c r="B189" s="15" t="s">
+      <c r="B190" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C189" s="15" t="s">
+      <c r="C190" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D189" s="15" t="s">
+      <c r="D190" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E189" s="15" t="s">
+      <c r="E190" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F189" s="15" t="s">
+      <c r="F190" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G189" s="15" t="s">
+      <c r="G190" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H189" s="15" t="s">
+      <c r="H190" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I189" s="15" t="s">
+      <c r="I190" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J189" s="15" t="s">
+      <c r="J190" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K189" s="15" t="s">
+      <c r="K190" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B190" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C190" s="7">
-        <v>0</v>
-      </c>
-      <c r="D190" s="7">
-        <v>1</v>
-      </c>
-      <c r="E190" s="7">
-        <v>0</v>
-      </c>
-      <c r="F190" s="7">
-        <v>0</v>
-      </c>
-      <c r="G190" s="7"/>
-      <c r="H190" s="7"/>
-      <c r="I190" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J190" s="6"/>
-      <c r="K190" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="B191" s="14">
         <v>14489</v>
@@ -8630,12 +8755,12 @@
       </c>
       <c r="J191" s="6"/>
       <c r="K191" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B192" s="14">
         <v>14489</v>
@@ -8659,12 +8784,12 @@
       </c>
       <c r="J192" s="6"/>
       <c r="K192" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B193" s="14">
         <v>14489</v>
@@ -8693,10 +8818,10 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B194" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C194" s="7">
         <v>0</v>
@@ -8717,15 +8842,15 @@
       </c>
       <c r="J194" s="6"/>
       <c r="K194" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B195" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C195" s="7">
         <v>0</v>
@@ -8746,12 +8871,12 @@
       </c>
       <c r="J195" s="6"/>
       <c r="K195" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B196" s="14">
         <v>14458</v>
@@ -8775,12 +8900,12 @@
       </c>
       <c r="J196" s="6"/>
       <c r="K196" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="B197" s="14">
         <v>14458</v>
@@ -8789,7 +8914,7 @@
         <v>0</v>
       </c>
       <c r="D197" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E197" s="7">
         <v>0</v>
@@ -8800,16 +8925,16 @@
       <c r="G197" s="7"/>
       <c r="H197" s="7"/>
       <c r="I197" s="6" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="J197" s="6"/>
       <c r="K197" s="6" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B198" s="14">
         <v>14458</v>
@@ -8833,12 +8958,12 @@
       </c>
       <c r="J198" s="6"/>
       <c r="K198" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B199" s="14">
         <v>14458</v>
@@ -8862,12 +8987,12 @@
       </c>
       <c r="J199" s="6"/>
       <c r="K199" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B200" s="14">
         <v>14458</v>
@@ -8891,12 +9016,12 @@
       </c>
       <c r="J200" s="6"/>
       <c r="K200" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B201" s="14">
         <v>14458</v>
@@ -8920,21 +9045,21 @@
       </c>
       <c r="J201" s="6"/>
       <c r="K201" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B202" s="14">
-        <v>14824</v>
+        <v>14458</v>
       </c>
       <c r="C202" s="7">
         <v>0</v>
       </c>
       <c r="D202" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E202" s="7">
         <v>0</v>
@@ -8949,15 +9074,15 @@
       </c>
       <c r="J202" s="6"/>
       <c r="K202" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B203" s="14">
-        <v>14885</v>
+        <v>14824</v>
       </c>
       <c r="C203" s="7">
         <v>0</v>
@@ -8978,15 +9103,15 @@
       </c>
       <c r="J203" s="6"/>
       <c r="K203" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B204" s="14">
-        <v>14458</v>
+        <v>14885</v>
       </c>
       <c r="C204" s="7">
         <v>0</v>
@@ -9007,89 +9132,89 @@
       </c>
       <c r="J204" s="6"/>
       <c r="K204" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="6"/>
-      <c r="B205" s="14"/>
-      <c r="C205" s="7"/>
-      <c r="D205" s="7"/>
-      <c r="E205" s="7"/>
-      <c r="F205" s="7"/>
+      <c r="A205" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B205" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C205" s="7">
+        <v>0</v>
+      </c>
+      <c r="D205" s="7">
+        <v>1</v>
+      </c>
+      <c r="E205" s="7">
+        <v>0</v>
+      </c>
+      <c r="F205" s="7">
+        <v>0</v>
+      </c>
       <c r="G205" s="7"/>
       <c r="H205" s="7"/>
-      <c r="I205" s="6"/>
+      <c r="I205" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="J205" s="6"/>
-      <c r="K205" s="6"/>
-    </row>
-    <row r="206" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+      <c r="K205" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" s="6"/>
+      <c r="B206" s="14"/>
+      <c r="C206" s="7"/>
+      <c r="D206" s="7"/>
+      <c r="E206" s="7"/>
+      <c r="F206" s="7"/>
+      <c r="G206" s="7"/>
+      <c r="H206" s="7"/>
+      <c r="I206" s="6"/>
+      <c r="J206" s="6"/>
+      <c r="K206" s="6"/>
+    </row>
+    <row r="207" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
         <v>437</v>
       </c>
-      <c r="B206" s="15" t="s">
+      <c r="B207" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C206" s="15" t="s">
+      <c r="C207" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D206" s="15" t="s">
+      <c r="D207" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E206" s="15" t="s">
+      <c r="E207" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F206" s="15" t="s">
+      <c r="F207" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G206" s="15" t="s">
+      <c r="G207" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H206" s="15" t="s">
+      <c r="H207" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I206" s="15" t="s">
+      <c r="I207" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J206" s="15" t="s">
+      <c r="J207" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K206" s="15" t="s">
+      <c r="K207" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B207" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C207" s="7">
-        <v>0</v>
-      </c>
-      <c r="D207" s="7">
-        <v>1</v>
-      </c>
-      <c r="E207" s="7">
-        <v>0</v>
-      </c>
-      <c r="F207" s="7">
-        <v>0</v>
-      </c>
-      <c r="G207" s="7"/>
-      <c r="H207" s="7"/>
-      <c r="I207" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J207" s="6"/>
-      <c r="K207" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="B208" s="14">
         <v>14489</v>
@@ -9113,12 +9238,12 @@
       </c>
       <c r="J208" s="6"/>
       <c r="K208" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B209" s="14">
         <v>14489</v>
@@ -9142,12 +9267,12 @@
       </c>
       <c r="J209" s="6"/>
       <c r="K209" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B210" s="14">
         <v>14489</v>
@@ -9176,10 +9301,10 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B211" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C211" s="7">
         <v>0</v>
@@ -9200,15 +9325,15 @@
       </c>
       <c r="J211" s="6"/>
       <c r="K211" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B212" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C212" s="7">
         <v>0</v>
@@ -9229,12 +9354,12 @@
       </c>
       <c r="J212" s="6"/>
       <c r="K212" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B213" s="14">
         <v>14458</v>
@@ -9258,12 +9383,12 @@
       </c>
       <c r="J213" s="6"/>
       <c r="K213" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="B214" s="14">
         <v>14458</v>
@@ -9272,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="D214" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E214" s="7">
         <v>0</v>
@@ -9283,16 +9408,16 @@
       <c r="G214" s="7"/>
       <c r="H214" s="7"/>
       <c r="I214" s="6" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="J214" s="6"/>
       <c r="K214" s="6" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B215" s="14">
         <v>14458</v>
@@ -9316,12 +9441,12 @@
       </c>
       <c r="J215" s="6"/>
       <c r="K215" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B216" s="14">
         <v>14458</v>
@@ -9345,12 +9470,12 @@
       </c>
       <c r="J216" s="6"/>
       <c r="K216" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B217" s="14">
         <v>14458</v>
@@ -9374,12 +9499,12 @@
       </c>
       <c r="J217" s="6"/>
       <c r="K217" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B218" s="14">
         <v>14458</v>
@@ -9403,21 +9528,21 @@
       </c>
       <c r="J218" s="6"/>
       <c r="K218" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B219" s="14">
-        <v>14824</v>
+        <v>14458</v>
       </c>
       <c r="C219" s="7">
         <v>0</v>
       </c>
       <c r="D219" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E219" s="7">
         <v>0</v>
@@ -9432,15 +9557,15 @@
       </c>
       <c r="J219" s="6"/>
       <c r="K219" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B220" s="14">
-        <v>14885</v>
+        <v>14824</v>
       </c>
       <c r="C220" s="7">
         <v>0</v>
@@ -9461,15 +9586,15 @@
       </c>
       <c r="J220" s="6"/>
       <c r="K220" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B221" s="14">
-        <v>14458</v>
+        <v>14885</v>
       </c>
       <c r="C221" s="7">
         <v>0</v>
@@ -9490,89 +9615,89 @@
       </c>
       <c r="J221" s="6"/>
       <c r="K221" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="6"/>
-      <c r="B222" s="14"/>
-      <c r="C222" s="7"/>
-      <c r="D222" s="7"/>
-      <c r="E222" s="7"/>
-      <c r="F222" s="7"/>
+      <c r="A222" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B222" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C222" s="7">
+        <v>0</v>
+      </c>
+      <c r="D222" s="7">
+        <v>1</v>
+      </c>
+      <c r="E222" s="7">
+        <v>0</v>
+      </c>
+      <c r="F222" s="7">
+        <v>0</v>
+      </c>
       <c r="G222" s="7"/>
       <c r="H222" s="7"/>
-      <c r="I222" s="6"/>
+      <c r="I222" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="J222" s="6"/>
-      <c r="K222" s="6"/>
-    </row>
-    <row r="223" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+      <c r="K222" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" s="6"/>
+      <c r="B223" s="14"/>
+      <c r="C223" s="7"/>
+      <c r="D223" s="7"/>
+      <c r="E223" s="7"/>
+      <c r="F223" s="7"/>
+      <c r="G223" s="7"/>
+      <c r="H223" s="7"/>
+      <c r="I223" s="6"/>
+      <c r="J223" s="6"/>
+      <c r="K223" s="6"/>
+    </row>
+    <row r="224" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>438</v>
       </c>
-      <c r="B223" s="15" t="s">
+      <c r="B224" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C223" s="15" t="s">
+      <c r="C224" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D223" s="15" t="s">
+      <c r="D224" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E223" s="15" t="s">
+      <c r="E224" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F223" s="15" t="s">
+      <c r="F224" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G223" s="15" t="s">
+      <c r="G224" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H223" s="15" t="s">
+      <c r="H224" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I223" s="15" t="s">
+      <c r="I224" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J223" s="15" t="s">
+      <c r="J224" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K223" s="15" t="s">
+      <c r="K224" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B224" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C224" s="7">
-        <v>0</v>
-      </c>
-      <c r="D224" s="7">
-        <v>1</v>
-      </c>
-      <c r="E224" s="7">
-        <v>0</v>
-      </c>
-      <c r="F224" s="7">
-        <v>0</v>
-      </c>
-      <c r="G224" s="7"/>
-      <c r="H224" s="7"/>
-      <c r="I224" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J224" s="6"/>
-      <c r="K224" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="B225" s="14">
         <v>14489</v>
@@ -9596,12 +9721,12 @@
       </c>
       <c r="J225" s="6"/>
       <c r="K225" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B226" s="14">
         <v>14489</v>
@@ -9625,12 +9750,12 @@
       </c>
       <c r="J226" s="6"/>
       <c r="K226" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B227" s="14">
         <v>14489</v>
@@ -9659,10 +9784,10 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B228" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C228" s="7">
         <v>0</v>
@@ -9683,15 +9808,15 @@
       </c>
       <c r="J228" s="6"/>
       <c r="K228" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B229" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C229" s="7">
         <v>0</v>
@@ -9712,12 +9837,12 @@
       </c>
       <c r="J229" s="6"/>
       <c r="K229" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B230" s="14">
         <v>14458</v>
@@ -9741,89 +9866,89 @@
       </c>
       <c r="J230" s="6"/>
       <c r="K230" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" s="6"/>
-      <c r="B231" s="14"/>
-      <c r="C231" s="7"/>
-      <c r="D231" s="7"/>
-      <c r="E231" s="7"/>
-      <c r="F231" s="7"/>
+      <c r="A231" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B231" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C231" s="7">
+        <v>0</v>
+      </c>
+      <c r="D231" s="7">
+        <v>1</v>
+      </c>
+      <c r="E231" s="7">
+        <v>0</v>
+      </c>
+      <c r="F231" s="7">
+        <v>0</v>
+      </c>
       <c r="G231" s="7"/>
       <c r="H231" s="7"/>
-      <c r="I231" s="6"/>
+      <c r="I231" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="J231" s="6"/>
-      <c r="K231" s="6"/>
-    </row>
-    <row r="232" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+      <c r="K231" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" s="6"/>
+      <c r="B232" s="14"/>
+      <c r="C232" s="7"/>
+      <c r="D232" s="7"/>
+      <c r="E232" s="7"/>
+      <c r="F232" s="7"/>
+      <c r="G232" s="7"/>
+      <c r="H232" s="7"/>
+      <c r="I232" s="6"/>
+      <c r="J232" s="6"/>
+      <c r="K232" s="6"/>
+    </row>
+    <row r="233" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>439</v>
       </c>
-      <c r="B232" s="15" t="s">
+      <c r="B233" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C232" s="15" t="s">
+      <c r="C233" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D232" s="15" t="s">
+      <c r="D233" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E232" s="15" t="s">
+      <c r="E233" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F232" s="15" t="s">
+      <c r="F233" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G232" s="15" t="s">
+      <c r="G233" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H232" s="15" t="s">
+      <c r="H233" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I232" s="15" t="s">
+      <c r="I233" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J232" s="15" t="s">
+      <c r="J233" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K232" s="15" t="s">
+      <c r="K233" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B233" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C233" s="7">
-        <v>0</v>
-      </c>
-      <c r="D233" s="7">
-        <v>1</v>
-      </c>
-      <c r="E233" s="7">
-        <v>0</v>
-      </c>
-      <c r="F233" s="7">
-        <v>0</v>
-      </c>
-      <c r="G233" s="7"/>
-      <c r="H233" s="7"/>
-      <c r="I233" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J233" s="6"/>
-      <c r="K233" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="B234" s="14">
         <v>14489</v>
@@ -9847,12 +9972,12 @@
       </c>
       <c r="J234" s="6"/>
       <c r="K234" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B235" s="14">
         <v>14489</v>
@@ -9876,12 +10001,12 @@
       </c>
       <c r="J235" s="6"/>
       <c r="K235" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B236" s="14">
         <v>14489</v>
@@ -9910,10 +10035,10 @@
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B237" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C237" s="7">
         <v>0</v>
@@ -9934,15 +10059,15 @@
       </c>
       <c r="J237" s="6"/>
       <c r="K237" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B238" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C238" s="7">
         <v>0</v>
@@ -9963,12 +10088,12 @@
       </c>
       <c r="J238" s="6"/>
       <c r="K238" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B239" s="14">
         <v>14458</v>
@@ -9992,89 +10117,89 @@
       </c>
       <c r="J239" s="6"/>
       <c r="K239" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="6"/>
-      <c r="B240" s="14"/>
-      <c r="C240" s="7"/>
-      <c r="D240" s="7"/>
-      <c r="E240" s="7"/>
-      <c r="F240" s="7"/>
+      <c r="A240" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B240" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C240" s="7">
+        <v>0</v>
+      </c>
+      <c r="D240" s="7">
+        <v>1</v>
+      </c>
+      <c r="E240" s="7">
+        <v>0</v>
+      </c>
+      <c r="F240" s="7">
+        <v>0</v>
+      </c>
       <c r="G240" s="7"/>
       <c r="H240" s="7"/>
-      <c r="I240" s="6"/>
+      <c r="I240" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="J240" s="6"/>
-      <c r="K240" s="6"/>
-    </row>
-    <row r="241" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+      <c r="K240" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" s="6"/>
+      <c r="B241" s="14"/>
+      <c r="C241" s="7"/>
+      <c r="D241" s="7"/>
+      <c r="E241" s="7"/>
+      <c r="F241" s="7"/>
+      <c r="G241" s="7"/>
+      <c r="H241" s="7"/>
+      <c r="I241" s="6"/>
+      <c r="J241" s="6"/>
+      <c r="K241" s="6"/>
+    </row>
+    <row r="242" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
         <v>440</v>
       </c>
-      <c r="B241" s="15" t="s">
+      <c r="B242" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C241" s="15" t="s">
+      <c r="C242" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D241" s="15" t="s">
+      <c r="D242" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E241" s="15" t="s">
+      <c r="E242" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F241" s="15" t="s">
+      <c r="F242" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G241" s="15" t="s">
+      <c r="G242" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H241" s="15" t="s">
+      <c r="H242" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I241" s="15" t="s">
+      <c r="I242" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J241" s="15" t="s">
+      <c r="J242" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K241" s="15" t="s">
+      <c r="K242" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A242" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B242" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C242" s="7">
-        <v>0</v>
-      </c>
-      <c r="D242" s="7">
-        <v>1</v>
-      </c>
-      <c r="E242" s="7">
-        <v>0</v>
-      </c>
-      <c r="F242" s="7">
-        <v>0</v>
-      </c>
-      <c r="G242" s="7"/>
-      <c r="H242" s="7"/>
-      <c r="I242" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J242" s="6"/>
-      <c r="K242" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="B243" s="14">
         <v>14489</v>
@@ -10098,12 +10223,12 @@
       </c>
       <c r="J243" s="6"/>
       <c r="K243" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B244" s="14">
         <v>14489</v>
@@ -10127,12 +10252,12 @@
       </c>
       <c r="J244" s="6"/>
       <c r="K244" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B245" s="14">
         <v>14489</v>
@@ -10161,10 +10286,10 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B246" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C246" s="7">
         <v>0</v>
@@ -10185,15 +10310,15 @@
       </c>
       <c r="J246" s="6"/>
       <c r="K246" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B247" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C247" s="7">
         <v>0</v>
@@ -10214,12 +10339,12 @@
       </c>
       <c r="J247" s="6"/>
       <c r="K247" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B248" s="14">
         <v>14458</v>
@@ -10243,89 +10368,89 @@
       </c>
       <c r="J248" s="6"/>
       <c r="K248" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A249" s="6"/>
-      <c r="B249" s="14"/>
-      <c r="C249" s="7"/>
-      <c r="D249" s="7"/>
-      <c r="E249" s="7"/>
-      <c r="F249" s="7"/>
+      <c r="A249" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B249" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C249" s="7">
+        <v>0</v>
+      </c>
+      <c r="D249" s="7">
+        <v>1</v>
+      </c>
+      <c r="E249" s="7">
+        <v>0</v>
+      </c>
+      <c r="F249" s="7">
+        <v>0</v>
+      </c>
       <c r="G249" s="7"/>
       <c r="H249" s="7"/>
-      <c r="I249" s="6"/>
+      <c r="I249" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="J249" s="6"/>
-      <c r="K249" s="6"/>
-    </row>
-    <row r="250" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
+      <c r="K249" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250" s="6"/>
+      <c r="B250" s="14"/>
+      <c r="C250" s="7"/>
+      <c r="D250" s="7"/>
+      <c r="E250" s="7"/>
+      <c r="F250" s="7"/>
+      <c r="G250" s="7"/>
+      <c r="H250" s="7"/>
+      <c r="I250" s="6"/>
+      <c r="J250" s="6"/>
+      <c r="K250" s="6"/>
+    </row>
+    <row r="251" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
         <v>441</v>
       </c>
-      <c r="B250" s="15" t="s">
+      <c r="B251" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C250" s="15" t="s">
+      <c r="C251" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D250" s="15" t="s">
+      <c r="D251" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E250" s="15" t="s">
+      <c r="E251" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F250" s="15" t="s">
+      <c r="F251" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G250" s="15" t="s">
+      <c r="G251" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H250" s="15" t="s">
+      <c r="H251" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I250" s="15" t="s">
+      <c r="I251" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J250" s="15" t="s">
+      <c r="J251" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K250" s="15" t="s">
+      <c r="K251" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B251" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C251" s="7">
-        <v>0</v>
-      </c>
-      <c r="D251" s="7">
-        <v>1</v>
-      </c>
-      <c r="E251" s="7">
-        <v>0</v>
-      </c>
-      <c r="F251" s="7">
-        <v>0</v>
-      </c>
-      <c r="G251" s="7"/>
-      <c r="H251" s="7"/>
-      <c r="I251" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J251" s="6"/>
-      <c r="K251" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="B252" s="14">
         <v>14489</v>
@@ -10349,12 +10474,12 @@
       </c>
       <c r="J252" s="6"/>
       <c r="K252" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B253" s="14">
         <v>14489</v>
@@ -10378,12 +10503,12 @@
       </c>
       <c r="J253" s="6"/>
       <c r="K253" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B254" s="14">
         <v>14489</v>
@@ -10412,10 +10537,10 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B255" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C255" s="7">
         <v>0</v>
@@ -10436,15 +10561,15 @@
       </c>
       <c r="J255" s="6"/>
       <c r="K255" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B256" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C256" s="7">
         <v>0</v>
@@ -10465,12 +10590,12 @@
       </c>
       <c r="J256" s="6"/>
       <c r="K256" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B257" s="14">
         <v>14458</v>
@@ -10494,12 +10619,12 @@
       </c>
       <c r="J257" s="6"/>
       <c r="K257" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="B258" s="14">
         <v>14458</v>
@@ -10508,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="D258" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E258" s="7">
         <v>0</v>
@@ -10519,16 +10644,16 @@
       <c r="G258" s="7"/>
       <c r="H258" s="7"/>
       <c r="I258" s="6" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="J258" s="6"/>
       <c r="K258" s="6" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B259" s="14">
         <v>14458</v>
@@ -10552,12 +10677,12 @@
       </c>
       <c r="J259" s="6"/>
       <c r="K259" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B260" s="14">
         <v>14458</v>
@@ -10581,12 +10706,12 @@
       </c>
       <c r="J260" s="6"/>
       <c r="K260" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B261" s="14">
         <v>14458</v>
@@ -10610,12 +10735,12 @@
       </c>
       <c r="J261" s="6"/>
       <c r="K261" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B262" s="14">
         <v>14458</v>
@@ -10639,21 +10764,21 @@
       </c>
       <c r="J262" s="6"/>
       <c r="K262" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B263" s="14">
-        <v>14824</v>
+        <v>14458</v>
       </c>
       <c r="C263" s="7">
         <v>0</v>
       </c>
       <c r="D263" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E263" s="7">
         <v>0</v>
@@ -10668,15 +10793,15 @@
       </c>
       <c r="J263" s="6"/>
       <c r="K263" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B264" s="14">
-        <v>14885</v>
+        <v>14824</v>
       </c>
       <c r="C264" s="7">
         <v>0</v>
@@ -10697,15 +10822,15 @@
       </c>
       <c r="J264" s="6"/>
       <c r="K264" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B265" s="14">
-        <v>14458</v>
+        <v>14885</v>
       </c>
       <c r="C265" s="7">
         <v>0</v>
@@ -10726,89 +10851,89 @@
       </c>
       <c r="J265" s="6"/>
       <c r="K265" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A266" s="6"/>
-      <c r="B266" s="14"/>
-      <c r="C266" s="7"/>
-      <c r="D266" s="7"/>
-      <c r="E266" s="7"/>
-      <c r="F266" s="7"/>
+      <c r="A266" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B266" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C266" s="7">
+        <v>0</v>
+      </c>
+      <c r="D266" s="7">
+        <v>1</v>
+      </c>
+      <c r="E266" s="7">
+        <v>0</v>
+      </c>
+      <c r="F266" s="7">
+        <v>0</v>
+      </c>
       <c r="G266" s="7"/>
       <c r="H266" s="7"/>
-      <c r="I266" s="6"/>
+      <c r="I266" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="J266" s="6"/>
-      <c r="K266" s="6"/>
-    </row>
-    <row r="267" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
+      <c r="K266" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267" s="6"/>
+      <c r="B267" s="14"/>
+      <c r="C267" s="7"/>
+      <c r="D267" s="7"/>
+      <c r="E267" s="7"/>
+      <c r="F267" s="7"/>
+      <c r="G267" s="7"/>
+      <c r="H267" s="7"/>
+      <c r="I267" s="6"/>
+      <c r="J267" s="6"/>
+      <c r="K267" s="6"/>
+    </row>
+    <row r="268" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
         <v>442</v>
       </c>
-      <c r="B267" s="15" t="s">
+      <c r="B268" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C267" s="15" t="s">
+      <c r="C268" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D267" s="15" t="s">
+      <c r="D268" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E267" s="15" t="s">
+      <c r="E268" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F267" s="15" t="s">
+      <c r="F268" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G267" s="15" t="s">
+      <c r="G268" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H267" s="15" t="s">
+      <c r="H268" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I267" s="15" t="s">
+      <c r="I268" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J267" s="15" t="s">
+      <c r="J268" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K267" s="15" t="s">
+      <c r="K268" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B268" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C268" s="7">
-        <v>0</v>
-      </c>
-      <c r="D268" s="7">
-        <v>1</v>
-      </c>
-      <c r="E268" s="7">
-        <v>0</v>
-      </c>
-      <c r="F268" s="7">
-        <v>0</v>
-      </c>
-      <c r="G268" s="7"/>
-      <c r="H268" s="7"/>
-      <c r="I268" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J268" s="6"/>
-      <c r="K268" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="B269" s="14">
         <v>14489</v>
@@ -10832,12 +10957,12 @@
       </c>
       <c r="J269" s="6"/>
       <c r="K269" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B270" s="14">
         <v>14489</v>
@@ -10861,12 +10986,12 @@
       </c>
       <c r="J270" s="6"/>
       <c r="K270" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B271" s="14">
         <v>14489</v>
@@ -10895,10 +11020,10 @@
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B272" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C272" s="7">
         <v>0</v>
@@ -10919,15 +11044,15 @@
       </c>
       <c r="J272" s="6"/>
       <c r="K272" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B273" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C273" s="7">
         <v>0</v>
@@ -10948,12 +11073,12 @@
       </c>
       <c r="J273" s="6"/>
       <c r="K273" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B274" s="14">
         <v>14458</v>
@@ -10977,12 +11102,12 @@
       </c>
       <c r="J274" s="6"/>
       <c r="K274" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="B275" s="14">
         <v>14458</v>
@@ -10991,7 +11116,7 @@
         <v>0</v>
       </c>
       <c r="D275" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E275" s="7">
         <v>0</v>
@@ -11002,16 +11127,16 @@
       <c r="G275" s="7"/>
       <c r="H275" s="7"/>
       <c r="I275" s="6" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="J275" s="6"/>
       <c r="K275" s="6" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B276" s="14">
         <v>14458</v>
@@ -11035,12 +11160,12 @@
       </c>
       <c r="J276" s="6"/>
       <c r="K276" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B277" s="14">
         <v>14458</v>
@@ -11064,12 +11189,12 @@
       </c>
       <c r="J277" s="6"/>
       <c r="K277" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B278" s="14">
         <v>14458</v>
@@ -11093,12 +11218,12 @@
       </c>
       <c r="J278" s="6"/>
       <c r="K278" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B279" s="14">
         <v>14458</v>
@@ -11122,21 +11247,21 @@
       </c>
       <c r="J279" s="6"/>
       <c r="K279" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B280" s="14">
-        <v>14824</v>
+        <v>14458</v>
       </c>
       <c r="C280" s="7">
         <v>0</v>
       </c>
       <c r="D280" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E280" s="7">
         <v>0</v>
@@ -11151,15 +11276,15 @@
       </c>
       <c r="J280" s="6"/>
       <c r="K280" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B281" s="14">
-        <v>14885</v>
+        <v>14824</v>
       </c>
       <c r="C281" s="7">
         <v>0</v>
@@ -11180,15 +11305,15 @@
       </c>
       <c r="J281" s="6"/>
       <c r="K281" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B282" s="14">
-        <v>14458</v>
+        <v>14885</v>
       </c>
       <c r="C282" s="7">
         <v>0</v>
@@ -11209,89 +11334,89 @@
       </c>
       <c r="J282" s="6"/>
       <c r="K282" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A283" s="6"/>
-      <c r="B283" s="14"/>
-      <c r="C283" s="7"/>
-      <c r="D283" s="7"/>
-      <c r="E283" s="7"/>
-      <c r="F283" s="7"/>
+      <c r="A283" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B283" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C283" s="7">
+        <v>0</v>
+      </c>
+      <c r="D283" s="7">
+        <v>1</v>
+      </c>
+      <c r="E283" s="7">
+        <v>0</v>
+      </c>
+      <c r="F283" s="7">
+        <v>0</v>
+      </c>
       <c r="G283" s="7"/>
       <c r="H283" s="7"/>
-      <c r="I283" s="6"/>
+      <c r="I283" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="J283" s="6"/>
-      <c r="K283" s="6"/>
-    </row>
-    <row r="284" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
+      <c r="K283" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A284" s="6"/>
+      <c r="B284" s="14"/>
+      <c r="C284" s="7"/>
+      <c r="D284" s="7"/>
+      <c r="E284" s="7"/>
+      <c r="F284" s="7"/>
+      <c r="G284" s="7"/>
+      <c r="H284" s="7"/>
+      <c r="I284" s="6"/>
+      <c r="J284" s="6"/>
+      <c r="K284" s="6"/>
+    </row>
+    <row r="285" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
         <v>443</v>
       </c>
-      <c r="B284" s="15" t="s">
+      <c r="B285" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C284" s="15" t="s">
+      <c r="C285" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D284" s="15" t="s">
+      <c r="D285" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E284" s="15" t="s">
+      <c r="E285" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F284" s="15" t="s">
+      <c r="F285" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G284" s="15" t="s">
+      <c r="G285" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H284" s="15" t="s">
+      <c r="H285" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I284" s="15" t="s">
+      <c r="I285" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J284" s="15" t="s">
+      <c r="J285" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K284" s="15" t="s">
+      <c r="K285" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A285" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B285" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C285" s="7">
-        <v>0</v>
-      </c>
-      <c r="D285" s="7">
-        <v>1</v>
-      </c>
-      <c r="E285" s="7">
-        <v>0</v>
-      </c>
-      <c r="F285" s="7">
-        <v>0</v>
-      </c>
-      <c r="G285" s="7"/>
-      <c r="H285" s="7"/>
-      <c r="I285" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J285" s="6"/>
-      <c r="K285" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="B286" s="14">
         <v>14489</v>
@@ -11315,12 +11440,12 @@
       </c>
       <c r="J286" s="6"/>
       <c r="K286" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B287" s="14">
         <v>14489</v>
@@ -11344,12 +11469,12 @@
       </c>
       <c r="J287" s="6"/>
       <c r="K287" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B288" s="14">
         <v>14489</v>
@@ -11378,10 +11503,10 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B289" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C289" s="7">
         <v>0</v>
@@ -11402,15 +11527,15 @@
       </c>
       <c r="J289" s="6"/>
       <c r="K289" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B290" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C290" s="7">
         <v>0</v>
@@ -11431,12 +11556,12 @@
       </c>
       <c r="J290" s="6"/>
       <c r="K290" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B291" s="14">
         <v>14458</v>
@@ -11460,12 +11585,12 @@
       </c>
       <c r="J291" s="6"/>
       <c r="K291" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="B292" s="14">
         <v>14458</v>
@@ -11474,7 +11599,7 @@
         <v>0</v>
       </c>
       <c r="D292" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E292" s="7">
         <v>0</v>
@@ -11485,16 +11610,16 @@
       <c r="G292" s="7"/>
       <c r="H292" s="7"/>
       <c r="I292" s="6" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="J292" s="6"/>
       <c r="K292" s="6" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B293" s="14">
         <v>14458</v>
@@ -11518,12 +11643,12 @@
       </c>
       <c r="J293" s="6"/>
       <c r="K293" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B294" s="14">
         <v>14458</v>
@@ -11547,12 +11672,12 @@
       </c>
       <c r="J294" s="6"/>
       <c r="K294" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B295" s="14">
         <v>14458</v>
@@ -11576,12 +11701,12 @@
       </c>
       <c r="J295" s="6"/>
       <c r="K295" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B296" s="14">
         <v>14458</v>
@@ -11605,21 +11730,21 @@
       </c>
       <c r="J296" s="6"/>
       <c r="K296" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B297" s="14">
-        <v>14824</v>
+        <v>14458</v>
       </c>
       <c r="C297" s="7">
         <v>0</v>
       </c>
       <c r="D297" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E297" s="7">
         <v>0</v>
@@ -11634,15 +11759,15 @@
       </c>
       <c r="J297" s="6"/>
       <c r="K297" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B298" s="14">
-        <v>14885</v>
+        <v>14824</v>
       </c>
       <c r="C298" s="7">
         <v>0</v>
@@ -11663,15 +11788,15 @@
       </c>
       <c r="J298" s="6"/>
       <c r="K298" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B299" s="14">
-        <v>14458</v>
+        <v>14885</v>
       </c>
       <c r="C299" s="7">
         <v>0</v>
@@ -11692,89 +11817,89 @@
       </c>
       <c r="J299" s="6"/>
       <c r="K299" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A300" s="6"/>
-      <c r="B300" s="14"/>
-      <c r="C300" s="7"/>
-      <c r="D300" s="7"/>
-      <c r="E300" s="7"/>
-      <c r="F300" s="7"/>
+      <c r="A300" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B300" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C300" s="7">
+        <v>0</v>
+      </c>
+      <c r="D300" s="7">
+        <v>1</v>
+      </c>
+      <c r="E300" s="7">
+        <v>0</v>
+      </c>
+      <c r="F300" s="7">
+        <v>0</v>
+      </c>
       <c r="G300" s="7"/>
       <c r="H300" s="7"/>
-      <c r="I300" s="6"/>
+      <c r="I300" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="J300" s="6"/>
-      <c r="K300" s="6"/>
-    </row>
-    <row r="301" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
+      <c r="K300" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301" s="6"/>
+      <c r="B301" s="14"/>
+      <c r="C301" s="7"/>
+      <c r="D301" s="7"/>
+      <c r="E301" s="7"/>
+      <c r="F301" s="7"/>
+      <c r="G301" s="7"/>
+      <c r="H301" s="7"/>
+      <c r="I301" s="6"/>
+      <c r="J301" s="6"/>
+      <c r="K301" s="6"/>
+    </row>
+    <row r="302" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
         <v>444</v>
       </c>
-      <c r="B301" s="15" t="s">
+      <c r="B302" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C301" s="15" t="s">
+      <c r="C302" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D301" s="15" t="s">
+      <c r="D302" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E301" s="15" t="s">
+      <c r="E302" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F301" s="15" t="s">
+      <c r="F302" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G301" s="15" t="s">
+      <c r="G302" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H301" s="15" t="s">
+      <c r="H302" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I301" s="15" t="s">
+      <c r="I302" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J301" s="15" t="s">
+      <c r="J302" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K301" s="15" t="s">
+      <c r="K302" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A302" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B302" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C302" s="7">
-        <v>0</v>
-      </c>
-      <c r="D302" s="7">
-        <v>1</v>
-      </c>
-      <c r="E302" s="7">
-        <v>0</v>
-      </c>
-      <c r="F302" s="7">
-        <v>0</v>
-      </c>
-      <c r="G302" s="7"/>
-      <c r="H302" s="7"/>
-      <c r="I302" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J302" s="6"/>
-      <c r="K302" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="B303" s="14">
         <v>14489</v>
@@ -11798,12 +11923,12 @@
       </c>
       <c r="J303" s="6"/>
       <c r="K303" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B304" s="14">
         <v>14489</v>
@@ -11827,12 +11952,12 @@
       </c>
       <c r="J304" s="6"/>
       <c r="K304" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B305" s="14">
         <v>14489</v>
@@ -11861,10 +11986,10 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B306" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C306" s="7">
         <v>0</v>
@@ -11885,15 +12010,15 @@
       </c>
       <c r="J306" s="6"/>
       <c r="K306" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B307" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C307" s="7">
         <v>0</v>
@@ -11914,12 +12039,12 @@
       </c>
       <c r="J307" s="6"/>
       <c r="K307" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B308" s="14">
         <v>14458</v>
@@ -11943,12 +12068,12 @@
       </c>
       <c r="J308" s="6"/>
       <c r="K308" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="B309" s="14">
         <v>14458</v>
@@ -11957,7 +12082,7 @@
         <v>0</v>
       </c>
       <c r="D309" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E309" s="7">
         <v>0</v>
@@ -11968,16 +12093,16 @@
       <c r="G309" s="7"/>
       <c r="H309" s="7"/>
       <c r="I309" s="6" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="J309" s="6"/>
       <c r="K309" s="6" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B310" s="14">
         <v>14458</v>
@@ -12001,12 +12126,12 @@
       </c>
       <c r="J310" s="6"/>
       <c r="K310" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B311" s="14">
         <v>14458</v>
@@ -12030,12 +12155,12 @@
       </c>
       <c r="J311" s="6"/>
       <c r="K311" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B312" s="14">
         <v>14458</v>
@@ -12059,12 +12184,12 @@
       </c>
       <c r="J312" s="6"/>
       <c r="K312" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B313" s="14">
         <v>14458</v>
@@ -12088,21 +12213,21 @@
       </c>
       <c r="J313" s="6"/>
       <c r="K313" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B314" s="14">
-        <v>14824</v>
+        <v>14458</v>
       </c>
       <c r="C314" s="7">
         <v>0</v>
       </c>
       <c r="D314" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E314" s="7">
         <v>0</v>
@@ -12117,15 +12242,15 @@
       </c>
       <c r="J314" s="6"/>
       <c r="K314" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B315" s="14">
-        <v>14885</v>
+        <v>14824</v>
       </c>
       <c r="C315" s="7">
         <v>0</v>
@@ -12146,15 +12271,15 @@
       </c>
       <c r="J315" s="6"/>
       <c r="K315" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B316" s="14">
-        <v>14458</v>
+        <v>14885</v>
       </c>
       <c r="C316" s="7">
         <v>0</v>
@@ -12175,89 +12300,89 @@
       </c>
       <c r="J316" s="6"/>
       <c r="K316" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A317" s="6"/>
-      <c r="B317" s="14"/>
-      <c r="C317" s="7"/>
-      <c r="D317" s="7"/>
-      <c r="E317" s="7"/>
-      <c r="F317" s="7"/>
+      <c r="A317" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B317" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C317" s="7">
+        <v>0</v>
+      </c>
+      <c r="D317" s="7">
+        <v>1</v>
+      </c>
+      <c r="E317" s="7">
+        <v>0</v>
+      </c>
+      <c r="F317" s="7">
+        <v>0</v>
+      </c>
       <c r="G317" s="7"/>
       <c r="H317" s="7"/>
-      <c r="I317" s="6"/>
+      <c r="I317" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="J317" s="6"/>
-      <c r="K317" s="6"/>
-    </row>
-    <row r="318" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
+      <c r="K317" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A318" s="6"/>
+      <c r="B318" s="14"/>
+      <c r="C318" s="7"/>
+      <c r="D318" s="7"/>
+      <c r="E318" s="7"/>
+      <c r="F318" s="7"/>
+      <c r="G318" s="7"/>
+      <c r="H318" s="7"/>
+      <c r="I318" s="6"/>
+      <c r="J318" s="6"/>
+      <c r="K318" s="6"/>
+    </row>
+    <row r="319" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
         <v>445</v>
       </c>
-      <c r="B318" s="15" t="s">
+      <c r="B319" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C318" s="15" t="s">
+      <c r="C319" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D318" s="15" t="s">
+      <c r="D319" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E318" s="15" t="s">
+      <c r="E319" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F318" s="15" t="s">
+      <c r="F319" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G318" s="15" t="s">
+      <c r="G319" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H318" s="15" t="s">
+      <c r="H319" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I318" s="15" t="s">
+      <c r="I319" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J318" s="15" t="s">
+      <c r="J319" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K318" s="15" t="s">
+      <c r="K319" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B319" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C319" s="7">
-        <v>0</v>
-      </c>
-      <c r="D319" s="7">
-        <v>1</v>
-      </c>
-      <c r="E319" s="7">
-        <v>0</v>
-      </c>
-      <c r="F319" s="7">
-        <v>0</v>
-      </c>
-      <c r="G319" s="7"/>
-      <c r="H319" s="7"/>
-      <c r="I319" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J319" s="6"/>
-      <c r="K319" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="B320" s="14">
         <v>14489</v>
@@ -12281,12 +12406,12 @@
       </c>
       <c r="J320" s="6"/>
       <c r="K320" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B321" s="14">
         <v>14489</v>
@@ -12310,12 +12435,12 @@
       </c>
       <c r="J321" s="6"/>
       <c r="K321" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B322" s="14">
         <v>14489</v>
@@ -12344,10 +12469,10 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B323" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C323" s="7">
         <v>0</v>
@@ -12368,15 +12493,15 @@
       </c>
       <c r="J323" s="6"/>
       <c r="K323" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B324" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C324" s="7">
         <v>0</v>
@@ -12397,12 +12522,12 @@
       </c>
       <c r="J324" s="6"/>
       <c r="K324" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B325" s="14">
         <v>14458</v>
@@ -12426,12 +12551,12 @@
       </c>
       <c r="J325" s="6"/>
       <c r="K325" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="B326" s="14">
         <v>14458</v>
@@ -12440,7 +12565,7 @@
         <v>0</v>
       </c>
       <c r="D326" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E326" s="7">
         <v>0</v>
@@ -12451,16 +12576,16 @@
       <c r="G326" s="7"/>
       <c r="H326" s="7"/>
       <c r="I326" s="6" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="J326" s="6"/>
       <c r="K326" s="6" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B327" s="14">
         <v>14458</v>
@@ -12484,12 +12609,12 @@
       </c>
       <c r="J327" s="6"/>
       <c r="K327" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B328" s="14">
         <v>14458</v>
@@ -12513,12 +12638,12 @@
       </c>
       <c r="J328" s="6"/>
       <c r="K328" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B329" s="14">
         <v>14458</v>
@@ -12542,12 +12667,12 @@
       </c>
       <c r="J329" s="6"/>
       <c r="K329" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B330" s="14">
         <v>14458</v>
@@ -12571,21 +12696,21 @@
       </c>
       <c r="J330" s="6"/>
       <c r="K330" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B331" s="14">
-        <v>14824</v>
+        <v>14458</v>
       </c>
       <c r="C331" s="7">
         <v>0</v>
       </c>
       <c r="D331" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E331" s="7">
         <v>0</v>
@@ -12600,15 +12725,15 @@
       </c>
       <c r="J331" s="6"/>
       <c r="K331" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B332" s="14">
-        <v>14885</v>
+        <v>14824</v>
       </c>
       <c r="C332" s="7">
         <v>0</v>
@@ -12629,15 +12754,15 @@
       </c>
       <c r="J332" s="6"/>
       <c r="K332" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B333" s="14">
-        <v>14458</v>
+        <v>14885</v>
       </c>
       <c r="C333" s="7">
         <v>0</v>
@@ -12658,89 +12783,89 @@
       </c>
       <c r="J333" s="6"/>
       <c r="K333" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A334" s="6"/>
-      <c r="B334" s="14"/>
-      <c r="C334" s="7"/>
-      <c r="D334" s="7"/>
-      <c r="E334" s="7"/>
-      <c r="F334" s="7"/>
+      <c r="A334" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B334" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C334" s="7">
+        <v>0</v>
+      </c>
+      <c r="D334" s="7">
+        <v>1</v>
+      </c>
+      <c r="E334" s="7">
+        <v>0</v>
+      </c>
+      <c r="F334" s="7">
+        <v>0</v>
+      </c>
       <c r="G334" s="7"/>
       <c r="H334" s="7"/>
-      <c r="I334" s="6"/>
+      <c r="I334" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="J334" s="6"/>
-      <c r="K334" s="6"/>
-    </row>
-    <row r="335" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
+      <c r="K334" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335" s="6"/>
+      <c r="B335" s="14"/>
+      <c r="C335" s="7"/>
+      <c r="D335" s="7"/>
+      <c r="E335" s="7"/>
+      <c r="F335" s="7"/>
+      <c r="G335" s="7"/>
+      <c r="H335" s="7"/>
+      <c r="I335" s="6"/>
+      <c r="J335" s="6"/>
+      <c r="K335" s="6"/>
+    </row>
+    <row r="336" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
         <v>446</v>
       </c>
-      <c r="B335" s="15" t="s">
+      <c r="B336" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C335" s="15" t="s">
+      <c r="C336" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D335" s="15" t="s">
+      <c r="D336" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E335" s="15" t="s">
+      <c r="E336" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F335" s="15" t="s">
+      <c r="F336" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G335" s="15" t="s">
+      <c r="G336" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H335" s="15" t="s">
+      <c r="H336" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I335" s="15" t="s">
+      <c r="I336" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J335" s="15" t="s">
+      <c r="J336" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K335" s="15" t="s">
+      <c r="K336" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A336" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B336" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C336" s="7">
-        <v>0</v>
-      </c>
-      <c r="D336" s="7">
-        <v>1</v>
-      </c>
-      <c r="E336" s="7">
-        <v>0</v>
-      </c>
-      <c r="F336" s="7">
-        <v>0</v>
-      </c>
-      <c r="G336" s="7"/>
-      <c r="H336" s="7"/>
-      <c r="I336" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J336" s="6"/>
-      <c r="K336" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="B337" s="14">
         <v>14489</v>
@@ -12764,12 +12889,12 @@
       </c>
       <c r="J337" s="6"/>
       <c r="K337" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B338" s="14">
         <v>14489</v>
@@ -12793,12 +12918,12 @@
       </c>
       <c r="J338" s="6"/>
       <c r="K338" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B339" s="14">
         <v>14489</v>
@@ -12827,10 +12952,10 @@
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B340" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C340" s="7">
         <v>0</v>
@@ -12851,15 +12976,15 @@
       </c>
       <c r="J340" s="6"/>
       <c r="K340" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B341" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C341" s="7">
         <v>0</v>
@@ -12880,12 +13005,12 @@
       </c>
       <c r="J341" s="6"/>
       <c r="K341" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B342" s="14">
         <v>14458</v>
@@ -12909,12 +13034,12 @@
       </c>
       <c r="J342" s="6"/>
       <c r="K342" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="B343" s="14">
         <v>14458</v>
@@ -12923,7 +13048,7 @@
         <v>0</v>
       </c>
       <c r="D343" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E343" s="7">
         <v>0</v>
@@ -12934,16 +13059,16 @@
       <c r="G343" s="7"/>
       <c r="H343" s="7"/>
       <c r="I343" s="6" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="J343" s="6"/>
       <c r="K343" s="6" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B344" s="14">
         <v>14458</v>
@@ -12967,12 +13092,12 @@
       </c>
       <c r="J344" s="6"/>
       <c r="K344" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B345" s="14">
         <v>14458</v>
@@ -12996,12 +13121,12 @@
       </c>
       <c r="J345" s="6"/>
       <c r="K345" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B346" s="14">
         <v>14458</v>
@@ -13025,12 +13150,12 @@
       </c>
       <c r="J346" s="6"/>
       <c r="K346" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B347" s="14">
         <v>14458</v>
@@ -13054,21 +13179,21 @@
       </c>
       <c r="J347" s="6"/>
       <c r="K347" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B348" s="14">
-        <v>14824</v>
+        <v>14458</v>
       </c>
       <c r="C348" s="7">
         <v>0</v>
       </c>
       <c r="D348" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E348" s="7">
         <v>0</v>
@@ -13083,15 +13208,15 @@
       </c>
       <c r="J348" s="6"/>
       <c r="K348" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B349" s="14">
-        <v>14885</v>
+        <v>14824</v>
       </c>
       <c r="C349" s="7">
         <v>0</v>
@@ -13112,15 +13237,15 @@
       </c>
       <c r="J349" s="6"/>
       <c r="K349" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B350" s="14">
-        <v>14458</v>
+        <v>14885</v>
       </c>
       <c r="C350" s="7">
         <v>0</v>
@@ -13141,89 +13266,89 @@
       </c>
       <c r="J350" s="6"/>
       <c r="K350" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A351" s="6"/>
-      <c r="B351" s="14"/>
-      <c r="C351" s="7"/>
-      <c r="D351" s="7"/>
-      <c r="E351" s="7"/>
-      <c r="F351" s="7"/>
+      <c r="A351" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B351" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C351" s="7">
+        <v>0</v>
+      </c>
+      <c r="D351" s="7">
+        <v>1</v>
+      </c>
+      <c r="E351" s="7">
+        <v>0</v>
+      </c>
+      <c r="F351" s="7">
+        <v>0</v>
+      </c>
       <c r="G351" s="7"/>
       <c r="H351" s="7"/>
-      <c r="I351" s="6"/>
+      <c r="I351" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="J351" s="6"/>
-      <c r="K351" s="6"/>
-    </row>
-    <row r="352" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
+      <c r="K351" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A352" s="6"/>
+      <c r="B352" s="14"/>
+      <c r="C352" s="7"/>
+      <c r="D352" s="7"/>
+      <c r="E352" s="7"/>
+      <c r="F352" s="7"/>
+      <c r="G352" s="7"/>
+      <c r="H352" s="7"/>
+      <c r="I352" s="6"/>
+      <c r="J352" s="6"/>
+      <c r="K352" s="6"/>
+    </row>
+    <row r="353" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
         <v>447</v>
       </c>
-      <c r="B352" s="15" t="s">
+      <c r="B353" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C352" s="15" t="s">
+      <c r="C353" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D352" s="15" t="s">
+      <c r="D353" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E352" s="15" t="s">
+      <c r="E353" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F352" s="15" t="s">
+      <c r="F353" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G352" s="15" t="s">
+      <c r="G353" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H352" s="15" t="s">
+      <c r="H353" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I352" s="15" t="s">
+      <c r="I353" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J352" s="15" t="s">
+      <c r="J353" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K352" s="15" t="s">
+      <c r="K353" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B353" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C353" s="7">
-        <v>0</v>
-      </c>
-      <c r="D353" s="7">
-        <v>1</v>
-      </c>
-      <c r="E353" s="7">
-        <v>0</v>
-      </c>
-      <c r="F353" s="7">
-        <v>0</v>
-      </c>
-      <c r="G353" s="7"/>
-      <c r="H353" s="7"/>
-      <c r="I353" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J353" s="6"/>
-      <c r="K353" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="B354" s="14">
         <v>14489</v>
@@ -13247,12 +13372,12 @@
       </c>
       <c r="J354" s="6"/>
       <c r="K354" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B355" s="14">
         <v>14489</v>
@@ -13276,12 +13401,12 @@
       </c>
       <c r="J355" s="6"/>
       <c r="K355" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B356" s="14">
         <v>14489</v>
@@ -13310,10 +13435,10 @@
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B357" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C357" s="7">
         <v>0</v>
@@ -13334,15 +13459,15 @@
       </c>
       <c r="J357" s="6"/>
       <c r="K357" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B358" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C358" s="7">
         <v>0</v>
@@ -13363,12 +13488,12 @@
       </c>
       <c r="J358" s="6"/>
       <c r="K358" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B359" s="14">
         <v>14458</v>
@@ -13392,12 +13517,12 @@
       </c>
       <c r="J359" s="6"/>
       <c r="K359" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="B360" s="14">
         <v>14458</v>
@@ -13406,7 +13531,7 @@
         <v>0</v>
       </c>
       <c r="D360" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E360" s="7">
         <v>0</v>
@@ -13417,16 +13542,16 @@
       <c r="G360" s="7"/>
       <c r="H360" s="7"/>
       <c r="I360" s="6" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="J360" s="6"/>
       <c r="K360" s="6" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B361" s="14">
         <v>14458</v>
@@ -13450,12 +13575,12 @@
       </c>
       <c r="J361" s="6"/>
       <c r="K361" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B362" s="14">
         <v>14458</v>
@@ -13479,12 +13604,12 @@
       </c>
       <c r="J362" s="6"/>
       <c r="K362" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B363" s="14">
         <v>14458</v>
@@ -13508,12 +13633,12 @@
       </c>
       <c r="J363" s="6"/>
       <c r="K363" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B364" s="14">
         <v>14458</v>
@@ -13537,21 +13662,21 @@
       </c>
       <c r="J364" s="6"/>
       <c r="K364" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B365" s="14">
-        <v>14824</v>
+        <v>14458</v>
       </c>
       <c r="C365" s="7">
         <v>0</v>
       </c>
       <c r="D365" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E365" s="7">
         <v>0</v>
@@ -13566,15 +13691,15 @@
       </c>
       <c r="J365" s="6"/>
       <c r="K365" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B366" s="14">
-        <v>14885</v>
+        <v>14824</v>
       </c>
       <c r="C366" s="7">
         <v>0</v>
@@ -13595,15 +13720,15 @@
       </c>
       <c r="J366" s="6"/>
       <c r="K366" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B367" s="14">
-        <v>14458</v>
+        <v>14885</v>
       </c>
       <c r="C367" s="7">
         <v>0</v>
@@ -13624,89 +13749,89 @@
       </c>
       <c r="J367" s="6"/>
       <c r="K367" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A368" s="6"/>
-      <c r="B368" s="14"/>
-      <c r="C368" s="7"/>
-      <c r="D368" s="7"/>
-      <c r="E368" s="7"/>
-      <c r="F368" s="7"/>
+      <c r="A368" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B368" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C368" s="7">
+        <v>0</v>
+      </c>
+      <c r="D368" s="7">
+        <v>1</v>
+      </c>
+      <c r="E368" s="7">
+        <v>0</v>
+      </c>
+      <c r="F368" s="7">
+        <v>0</v>
+      </c>
       <c r="G368" s="7"/>
       <c r="H368" s="7"/>
-      <c r="I368" s="6"/>
+      <c r="I368" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="J368" s="6"/>
-      <c r="K368" s="6"/>
-    </row>
-    <row r="369" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
+      <c r="K368" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="6"/>
+      <c r="B369" s="14"/>
+      <c r="C369" s="7"/>
+      <c r="D369" s="7"/>
+      <c r="E369" s="7"/>
+      <c r="F369" s="7"/>
+      <c r="G369" s="7"/>
+      <c r="H369" s="7"/>
+      <c r="I369" s="6"/>
+      <c r="J369" s="6"/>
+      <c r="K369" s="6"/>
+    </row>
+    <row r="370" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
         <v>448</v>
       </c>
-      <c r="B369" s="15" t="s">
+      <c r="B370" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C369" s="15" t="s">
+      <c r="C370" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D369" s="15" t="s">
+      <c r="D370" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E369" s="15" t="s">
+      <c r="E370" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F369" s="15" t="s">
+      <c r="F370" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G369" s="15" t="s">
+      <c r="G370" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H369" s="15" t="s">
+      <c r="H370" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I369" s="15" t="s">
+      <c r="I370" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J369" s="15" t="s">
+      <c r="J370" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K369" s="15" t="s">
+      <c r="K370" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A370" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B370" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C370" s="7">
-        <v>0</v>
-      </c>
-      <c r="D370" s="7">
-        <v>1</v>
-      </c>
-      <c r="E370" s="7">
-        <v>0</v>
-      </c>
-      <c r="F370" s="7">
-        <v>0</v>
-      </c>
-      <c r="G370" s="7"/>
-      <c r="H370" s="7"/>
-      <c r="I370" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J370" s="6"/>
-      <c r="K370" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="B371" s="14">
         <v>14489</v>
@@ -13730,12 +13855,12 @@
       </c>
       <c r="J371" s="6"/>
       <c r="K371" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B372" s="14">
         <v>14489</v>
@@ -13759,12 +13884,12 @@
       </c>
       <c r="J372" s="6"/>
       <c r="K372" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B373" s="14">
         <v>14489</v>
@@ -13793,10 +13918,10 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B374" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C374" s="7">
         <v>0</v>
@@ -13817,15 +13942,15 @@
       </c>
       <c r="J374" s="6"/>
       <c r="K374" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B375" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C375" s="7">
         <v>0</v>
@@ -13846,12 +13971,12 @@
       </c>
       <c r="J375" s="6"/>
       <c r="K375" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B376" s="14">
         <v>14458</v>
@@ -13875,12 +14000,12 @@
       </c>
       <c r="J376" s="6"/>
       <c r="K376" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="6" t="s">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="B377" s="14">
         <v>14458</v>
@@ -13889,7 +14014,7 @@
         <v>0</v>
       </c>
       <c r="D377" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E377" s="7">
         <v>0</v>
@@ -13900,16 +14025,16 @@
       <c r="G377" s="7"/>
       <c r="H377" s="7"/>
       <c r="I377" s="6" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="J377" s="6"/>
       <c r="K377" s="6" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B378" s="14">
         <v>14458</v>
@@ -13933,12 +14058,12 @@
       </c>
       <c r="J378" s="6"/>
       <c r="K378" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B379" s="14">
         <v>14458</v>
@@ -13962,12 +14087,12 @@
       </c>
       <c r="J379" s="6"/>
       <c r="K379" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B380" s="14">
         <v>14458</v>
@@ -13991,12 +14116,12 @@
       </c>
       <c r="J380" s="6"/>
       <c r="K380" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B381" s="14">
         <v>14458</v>
@@ -14020,21 +14145,21 @@
       </c>
       <c r="J381" s="6"/>
       <c r="K381" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B382" s="14">
-        <v>14824</v>
+        <v>14458</v>
       </c>
       <c r="C382" s="7">
         <v>0</v>
       </c>
       <c r="D382" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E382" s="7">
         <v>0</v>
@@ -14049,15 +14174,15 @@
       </c>
       <c r="J382" s="6"/>
       <c r="K382" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B383" s="14">
-        <v>14885</v>
+        <v>14824</v>
       </c>
       <c r="C383" s="7">
         <v>0</v>
@@ -14078,15 +14203,15 @@
       </c>
       <c r="J383" s="6"/>
       <c r="K383" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B384" s="14">
-        <v>14458</v>
+        <v>14885</v>
       </c>
       <c r="C384" s="7">
         <v>0</v>
@@ -14107,89 +14232,89 @@
       </c>
       <c r="J384" s="6"/>
       <c r="K384" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A385" s="6"/>
-      <c r="B385" s="14"/>
-      <c r="C385" s="7"/>
-      <c r="D385" s="7"/>
-      <c r="E385" s="7"/>
-      <c r="F385" s="7"/>
+      <c r="A385" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B385" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C385" s="7">
+        <v>0</v>
+      </c>
+      <c r="D385" s="7">
+        <v>1</v>
+      </c>
+      <c r="E385" s="7">
+        <v>0</v>
+      </c>
+      <c r="F385" s="7">
+        <v>0</v>
+      </c>
       <c r="G385" s="7"/>
       <c r="H385" s="7"/>
-      <c r="I385" s="6"/>
+      <c r="I385" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="J385" s="6"/>
-      <c r="K385" s="6"/>
-    </row>
-    <row r="386" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
+      <c r="K385" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A386" s="6"/>
+      <c r="B386" s="14"/>
+      <c r="C386" s="7"/>
+      <c r="D386" s="7"/>
+      <c r="E386" s="7"/>
+      <c r="F386" s="7"/>
+      <c r="G386" s="7"/>
+      <c r="H386" s="7"/>
+      <c r="I386" s="6"/>
+      <c r="J386" s="6"/>
+      <c r="K386" s="6"/>
+    </row>
+    <row r="387" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
         <v>449</v>
       </c>
-      <c r="B386" s="15" t="s">
+      <c r="B387" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C386" s="15" t="s">
+      <c r="C387" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D386" s="15" t="s">
+      <c r="D387" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E386" s="15" t="s">
+      <c r="E387" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F386" s="15" t="s">
+      <c r="F387" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G386" s="15" t="s">
+      <c r="G387" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H386" s="15" t="s">
+      <c r="H387" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I386" s="15" t="s">
+      <c r="I387" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J386" s="15" t="s">
+      <c r="J387" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K386" s="15" t="s">
+      <c r="K387" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A387" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B387" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C387" s="7">
-        <v>0</v>
-      </c>
-      <c r="D387" s="7">
-        <v>1</v>
-      </c>
-      <c r="E387" s="7">
-        <v>0</v>
-      </c>
-      <c r="F387" s="7">
-        <v>0</v>
-      </c>
-      <c r="G387" s="7"/>
-      <c r="H387" s="7"/>
-      <c r="I387" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J387" s="6"/>
-      <c r="K387" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="6" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="B388" s="14">
         <v>14489</v>
@@ -14213,12 +14338,12 @@
       </c>
       <c r="J388" s="6"/>
       <c r="K388" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B389" s="14">
         <v>14489</v>
@@ -14242,12 +14367,12 @@
       </c>
       <c r="J389" s="6"/>
       <c r="K389" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B390" s="14">
         <v>14489</v>
@@ -14276,10 +14401,10 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B391" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C391" s="7">
         <v>0</v>
@@ -14300,15 +14425,15 @@
       </c>
       <c r="J391" s="6"/>
       <c r="K391" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B392" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C392" s="7">
         <v>0</v>
@@ -14329,12 +14454,12 @@
       </c>
       <c r="J392" s="6"/>
       <c r="K392" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B393" s="14">
         <v>14458</v>
@@ -14358,12 +14483,12 @@
       </c>
       <c r="J393" s="6"/>
       <c r="K393" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="6" t="s">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="B394" s="14">
         <v>14458</v>
@@ -14372,7 +14497,7 @@
         <v>0</v>
       </c>
       <c r="D394" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E394" s="7">
         <v>0</v>
@@ -14383,16 +14508,16 @@
       <c r="G394" s="7"/>
       <c r="H394" s="7"/>
       <c r="I394" s="6" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="J394" s="6"/>
       <c r="K394" s="6" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B395" s="14">
         <v>14458</v>
@@ -14416,12 +14541,12 @@
       </c>
       <c r="J395" s="6"/>
       <c r="K395" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B396" s="14">
         <v>14458</v>
@@ -14445,12 +14570,12 @@
       </c>
       <c r="J396" s="6"/>
       <c r="K396" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B397" s="14">
         <v>14458</v>
@@ -14474,12 +14599,12 @@
       </c>
       <c r="J397" s="6"/>
       <c r="K397" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B398" s="14">
         <v>14458</v>
@@ -14503,21 +14628,21 @@
       </c>
       <c r="J398" s="6"/>
       <c r="K398" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B399" s="14">
-        <v>14824</v>
+        <v>14458</v>
       </c>
       <c r="C399" s="7">
         <v>0</v>
       </c>
       <c r="D399" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E399" s="7">
         <v>0</v>
@@ -14532,15 +14657,15 @@
       </c>
       <c r="J399" s="6"/>
       <c r="K399" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B400" s="14">
-        <v>14885</v>
+        <v>14824</v>
       </c>
       <c r="C400" s="7">
         <v>0</v>
@@ -14561,15 +14686,15 @@
       </c>
       <c r="J400" s="6"/>
       <c r="K400" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B401" s="14">
-        <v>14458</v>
+        <v>14885</v>
       </c>
       <c r="C401" s="7">
         <v>0</v>
@@ -14590,89 +14715,89 @@
       </c>
       <c r="J401" s="6"/>
       <c r="K401" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A402" s="6"/>
-      <c r="B402" s="14"/>
-      <c r="C402" s="7"/>
-      <c r="D402" s="7"/>
-      <c r="E402" s="7"/>
-      <c r="F402" s="7"/>
+      <c r="A402" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B402" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C402" s="7">
+        <v>0</v>
+      </c>
+      <c r="D402" s="7">
+        <v>1</v>
+      </c>
+      <c r="E402" s="7">
+        <v>0</v>
+      </c>
+      <c r="F402" s="7">
+        <v>0</v>
+      </c>
       <c r="G402" s="7"/>
       <c r="H402" s="7"/>
-      <c r="I402" s="6"/>
+      <c r="I402" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="J402" s="6"/>
-      <c r="K402" s="6"/>
-    </row>
-    <row r="403" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A403" t="s">
+      <c r="K402" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A403" s="6"/>
+      <c r="B403" s="14"/>
+      <c r="C403" s="7"/>
+      <c r="D403" s="7"/>
+      <c r="E403" s="7"/>
+      <c r="F403" s="7"/>
+      <c r="G403" s="7"/>
+      <c r="H403" s="7"/>
+      <c r="I403" s="6"/>
+      <c r="J403" s="6"/>
+      <c r="K403" s="6"/>
+    </row>
+    <row r="404" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
         <v>450</v>
       </c>
-      <c r="B403" s="15" t="s">
+      <c r="B404" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C403" s="15" t="s">
+      <c r="C404" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D403" s="15" t="s">
+      <c r="D404" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E403" s="15" t="s">
+      <c r="E404" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F403" s="15" t="s">
+      <c r="F404" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G403" s="15" t="s">
+      <c r="G404" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H403" s="15" t="s">
+      <c r="H404" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I403" s="15" t="s">
+      <c r="I404" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J403" s="15" t="s">
+      <c r="J404" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K403" s="15" t="s">
+      <c r="K404" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A404" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B404" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C404" s="7">
-        <v>0</v>
-      </c>
-      <c r="D404" s="7">
-        <v>1</v>
-      </c>
-      <c r="E404" s="7">
-        <v>0</v>
-      </c>
-      <c r="F404" s="7">
-        <v>0</v>
-      </c>
-      <c r="G404" s="7"/>
-      <c r="H404" s="7"/>
-      <c r="I404" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J404" s="6"/>
-      <c r="K404" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="6" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="B405" s="14">
         <v>14489</v>
@@ -14696,12 +14821,12 @@
       </c>
       <c r="J405" s="6"/>
       <c r="K405" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B406" s="14">
         <v>14489</v>
@@ -14725,12 +14850,12 @@
       </c>
       <c r="J406" s="6"/>
       <c r="K406" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B407" s="14">
         <v>14489</v>
@@ -14759,10 +14884,10 @@
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B408" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C408" s="7">
         <v>0</v>
@@ -14783,15 +14908,15 @@
       </c>
       <c r="J408" s="6"/>
       <c r="K408" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B409" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C409" s="7">
         <v>0</v>
@@ -14812,12 +14937,12 @@
       </c>
       <c r="J409" s="6"/>
       <c r="K409" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B410" s="14">
         <v>14458</v>
@@ -14841,12 +14966,12 @@
       </c>
       <c r="J410" s="6"/>
       <c r="K410" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="6" t="s">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="B411" s="14">
         <v>14458</v>
@@ -14855,7 +14980,7 @@
         <v>0</v>
       </c>
       <c r="D411" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E411" s="7">
         <v>0</v>
@@ -14866,16 +14991,16 @@
       <c r="G411" s="7"/>
       <c r="H411" s="7"/>
       <c r="I411" s="6" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="J411" s="6"/>
       <c r="K411" s="6" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B412" s="14">
         <v>14458</v>
@@ -14899,12 +15024,12 @@
       </c>
       <c r="J412" s="6"/>
       <c r="K412" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B413" s="14">
         <v>14458</v>
@@ -14928,12 +15053,12 @@
       </c>
       <c r="J413" s="6"/>
       <c r="K413" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B414" s="14">
         <v>14458</v>
@@ -14957,12 +15082,12 @@
       </c>
       <c r="J414" s="6"/>
       <c r="K414" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B415" s="14">
         <v>14458</v>
@@ -14986,21 +15111,21 @@
       </c>
       <c r="J415" s="6"/>
       <c r="K415" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B416" s="14">
-        <v>14824</v>
+        <v>14458</v>
       </c>
       <c r="C416" s="7">
         <v>0</v>
       </c>
       <c r="D416" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E416" s="7">
         <v>0</v>
@@ -15015,15 +15140,15 @@
       </c>
       <c r="J416" s="6"/>
       <c r="K416" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B417" s="14">
-        <v>14885</v>
+        <v>14824</v>
       </c>
       <c r="C417" s="7">
         <v>0</v>
@@ -15044,15 +15169,15 @@
       </c>
       <c r="J417" s="6"/>
       <c r="K417" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B418" s="14">
-        <v>14458</v>
+        <v>14885</v>
       </c>
       <c r="C418" s="7">
         <v>0</v>
@@ -15073,89 +15198,89 @@
       </c>
       <c r="J418" s="6"/>
       <c r="K418" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" s="6"/>
-      <c r="B419" s="14"/>
-      <c r="C419" s="7"/>
-      <c r="D419" s="7"/>
-      <c r="E419" s="7"/>
-      <c r="F419" s="7"/>
+      <c r="A419" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B419" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C419" s="7">
+        <v>0</v>
+      </c>
+      <c r="D419" s="7">
+        <v>1</v>
+      </c>
+      <c r="E419" s="7">
+        <v>0</v>
+      </c>
+      <c r="F419" s="7">
+        <v>0</v>
+      </c>
       <c r="G419" s="7"/>
       <c r="H419" s="7"/>
-      <c r="I419" s="6"/>
+      <c r="I419" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="J419" s="6"/>
-      <c r="K419" s="6"/>
-    </row>
-    <row r="420" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A420" t="s">
+      <c r="K419" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A420" s="6"/>
+      <c r="B420" s="14"/>
+      <c r="C420" s="7"/>
+      <c r="D420" s="7"/>
+      <c r="E420" s="7"/>
+      <c r="F420" s="7"/>
+      <c r="G420" s="7"/>
+      <c r="H420" s="7"/>
+      <c r="I420" s="6"/>
+      <c r="J420" s="6"/>
+      <c r="K420" s="6"/>
+    </row>
+    <row r="421" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
         <v>451</v>
       </c>
-      <c r="B420" s="15" t="s">
+      <c r="B421" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C420" s="15" t="s">
+      <c r="C421" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D420" s="15" t="s">
+      <c r="D421" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E420" s="15" t="s">
+      <c r="E421" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F420" s="15" t="s">
+      <c r="F421" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G420" s="15" t="s">
+      <c r="G421" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H420" s="15" t="s">
+      <c r="H421" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I420" s="15" t="s">
+      <c r="I421" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J420" s="15" t="s">
+      <c r="J421" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K420" s="15" t="s">
+      <c r="K421" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A421" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B421" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C421" s="7">
-        <v>0</v>
-      </c>
-      <c r="D421" s="7">
-        <v>1</v>
-      </c>
-      <c r="E421" s="7">
-        <v>0</v>
-      </c>
-      <c r="F421" s="7">
-        <v>0</v>
-      </c>
-      <c r="G421" s="7"/>
-      <c r="H421" s="7"/>
-      <c r="I421" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J421" s="6"/>
-      <c r="K421" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="6" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="B422" s="14">
         <v>14489</v>
@@ -15179,12 +15304,12 @@
       </c>
       <c r="J422" s="6"/>
       <c r="K422" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B423" s="14">
         <v>14489</v>
@@ -15208,12 +15333,12 @@
       </c>
       <c r="J423" s="6"/>
       <c r="K423" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B424" s="14">
         <v>14489</v>
@@ -15242,10 +15367,10 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B425" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C425" s="7">
         <v>0</v>
@@ -15266,15 +15391,15 @@
       </c>
       <c r="J425" s="6"/>
       <c r="K425" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B426" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C426" s="7">
         <v>0</v>
@@ -15295,12 +15420,12 @@
       </c>
       <c r="J426" s="6"/>
       <c r="K426" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B427" s="14">
         <v>14458</v>
@@ -15324,12 +15449,12 @@
       </c>
       <c r="J427" s="6"/>
       <c r="K427" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="6" t="s">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="B428" s="14">
         <v>14458</v>
@@ -15338,7 +15463,7 @@
         <v>0</v>
       </c>
       <c r="D428" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E428" s="7">
         <v>0</v>
@@ -15349,16 +15474,16 @@
       <c r="G428" s="7"/>
       <c r="H428" s="7"/>
       <c r="I428" s="6" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="J428" s="6"/>
       <c r="K428" s="6" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B429" s="14">
         <v>14458</v>
@@ -15382,12 +15507,12 @@
       </c>
       <c r="J429" s="6"/>
       <c r="K429" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B430" s="14">
         <v>14458</v>
@@ -15411,12 +15536,12 @@
       </c>
       <c r="J430" s="6"/>
       <c r="K430" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B431" s="14">
         <v>14458</v>
@@ -15440,12 +15565,12 @@
       </c>
       <c r="J431" s="6"/>
       <c r="K431" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B432" s="14">
         <v>14458</v>
@@ -15469,21 +15594,21 @@
       </c>
       <c r="J432" s="6"/>
       <c r="K432" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B433" s="14">
-        <v>14824</v>
+        <v>14458</v>
       </c>
       <c r="C433" s="7">
         <v>0</v>
       </c>
       <c r="D433" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E433" s="7">
         <v>0</v>
@@ -15498,15 +15623,15 @@
       </c>
       <c r="J433" s="6"/>
       <c r="K433" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B434" s="14">
-        <v>14885</v>
+        <v>14824</v>
       </c>
       <c r="C434" s="7">
         <v>0</v>
@@ -15527,15 +15652,15 @@
       </c>
       <c r="J434" s="6"/>
       <c r="K434" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B435" s="14">
-        <v>14458</v>
+        <v>14885</v>
       </c>
       <c r="C435" s="7">
         <v>0</v>
@@ -15556,89 +15681,89 @@
       </c>
       <c r="J435" s="6"/>
       <c r="K435" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A436" s="6"/>
-      <c r="B436" s="14"/>
-      <c r="C436" s="7"/>
-      <c r="D436" s="7"/>
-      <c r="E436" s="7"/>
-      <c r="F436" s="7"/>
+      <c r="A436" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B436" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C436" s="7">
+        <v>0</v>
+      </c>
+      <c r="D436" s="7">
+        <v>1</v>
+      </c>
+      <c r="E436" s="7">
+        <v>0</v>
+      </c>
+      <c r="F436" s="7">
+        <v>0</v>
+      </c>
       <c r="G436" s="7"/>
       <c r="H436" s="7"/>
-      <c r="I436" s="6"/>
+      <c r="I436" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="J436" s="6"/>
-      <c r="K436" s="6"/>
-    </row>
-    <row r="437" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A437" s="7" t="s">
+      <c r="K436" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A437" s="6"/>
+      <c r="B437" s="14"/>
+      <c r="C437" s="7"/>
+      <c r="D437" s="7"/>
+      <c r="E437" s="7"/>
+      <c r="F437" s="7"/>
+      <c r="G437" s="7"/>
+      <c r="H437" s="7"/>
+      <c r="I437" s="6"/>
+      <c r="J437" s="6"/>
+      <c r="K437" s="6"/>
+    </row>
+    <row r="438" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A438" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="B437" s="15" t="s">
+      <c r="B438" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C437" s="15" t="s">
+      <c r="C438" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D437" s="15" t="s">
+      <c r="D438" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E437" s="15" t="s">
+      <c r="E438" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F437" s="15" t="s">
+      <c r="F438" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G437" s="15" t="s">
+      <c r="G438" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H437" s="15" t="s">
+      <c r="H438" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I437" s="15" t="s">
+      <c r="I438" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J437" s="15" t="s">
+      <c r="J438" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K437" s="15" t="s">
+      <c r="K438" s="15" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A438" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B438" s="14">
-        <v>14489</v>
-      </c>
-      <c r="C438" s="7">
-        <v>0</v>
-      </c>
-      <c r="D438" s="7">
-        <v>1</v>
-      </c>
-      <c r="E438" s="7">
-        <v>0</v>
-      </c>
-      <c r="F438" s="7">
-        <v>0</v>
-      </c>
-      <c r="G438" s="7"/>
-      <c r="H438" s="7"/>
-      <c r="I438" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J438" s="6"/>
-      <c r="K438" s="6" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="6" t="s">
-        <v>406</v>
+        <v>25</v>
       </c>
       <c r="B439" s="14">
         <v>14489</v>
@@ -15662,12 +15787,12 @@
       </c>
       <c r="J439" s="6"/>
       <c r="K439" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B440" s="14">
         <v>14489</v>
@@ -15691,12 +15816,12 @@
       </c>
       <c r="J440" s="6"/>
       <c r="K440" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B441" s="14">
         <v>14489</v>
@@ -15725,10 +15850,10 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="6" t="s">
-        <v>27</v>
+        <v>409</v>
       </c>
       <c r="B442" s="14">
-        <v>14459</v>
+        <v>14489</v>
       </c>
       <c r="C442" s="7">
         <v>0</v>
@@ -15749,15 +15874,15 @@
       </c>
       <c r="J442" s="6"/>
       <c r="K442" s="6" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B443" s="14">
-        <v>14458</v>
+        <v>14459</v>
       </c>
       <c r="C443" s="7">
         <v>0</v>
@@ -15778,12 +15903,12 @@
       </c>
       <c r="J443" s="6"/>
       <c r="K443" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B444" s="14">
         <v>14458</v>
@@ -15807,12 +15932,12 @@
       </c>
       <c r="J444" s="6"/>
       <c r="K444" s="6" t="s">
-        <v>541</v>
+        <v>411</v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="6" t="s">
-        <v>510</v>
+        <v>29</v>
       </c>
       <c r="B445" s="14">
         <v>14458</v>
@@ -15821,7 +15946,7 @@
         <v>0</v>
       </c>
       <c r="D445" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E445" s="7">
         <v>0</v>
@@ -15832,16 +15957,16 @@
       <c r="G445" s="7"/>
       <c r="H445" s="7"/>
       <c r="I445" s="6" t="s">
-        <v>511</v>
+        <v>26</v>
       </c>
       <c r="J445" s="6"/>
       <c r="K445" s="6" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B446" s="14">
         <v>14458</v>
@@ -15865,12 +15990,12 @@
       </c>
       <c r="J446" s="6"/>
       <c r="K446" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B447" s="14">
         <v>14458</v>
@@ -15894,12 +16019,12 @@
       </c>
       <c r="J447" s="6"/>
       <c r="K447" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B448" s="14">
         <v>14458</v>
@@ -15923,12 +16048,12 @@
       </c>
       <c r="J448" s="6"/>
       <c r="K448" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B449" s="14">
         <v>14458</v>
@@ -15952,21 +16077,21 @@
       </c>
       <c r="J449" s="6"/>
       <c r="K449" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B450" s="14">
-        <v>14824</v>
+        <v>14458</v>
       </c>
       <c r="C450" s="7">
         <v>0</v>
       </c>
       <c r="D450" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E450" s="7">
         <v>0</v>
@@ -15981,15 +16106,15 @@
       </c>
       <c r="J450" s="6"/>
       <c r="K450" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B451" s="14">
-        <v>14885</v>
+        <v>14824</v>
       </c>
       <c r="C451" s="7">
         <v>0</v>
@@ -16010,15 +16135,15 @@
       </c>
       <c r="J451" s="6"/>
       <c r="K451" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B452" s="14">
-        <v>14458</v>
+        <v>14885</v>
       </c>
       <c r="C452" s="7">
         <v>0</v>
@@ -16039,12 +16164,12 @@
       </c>
       <c r="J452" s="6"/>
       <c r="K452" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A453" s="9" t="s">
-        <v>528</v>
+      <c r="A453" s="6" t="s">
+        <v>525</v>
       </c>
       <c r="B453" s="14">
         <v>14458</v>
@@ -16064,15 +16189,16 @@
       <c r="G453" s="7"/>
       <c r="H453" s="7"/>
       <c r="I453" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="J453" s="6"/>
       <c r="K453" s="6" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="9" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B454" s="14">
         <v>14458</v>
@@ -16095,12 +16221,12 @@
         <v>26</v>
       </c>
       <c r="K454" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B455" s="14">
         <v>14458</v>
@@ -16123,12 +16249,12 @@
         <v>26</v>
       </c>
       <c r="K455" s="6" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="9" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B456" s="14">
         <v>14458</v>
@@ -16150,8 +16276,36 @@
       <c r="I456" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J456" s="6"/>
       <c r="K456" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A457" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B457" s="14">
+        <v>14458</v>
+      </c>
+      <c r="C457" s="7">
+        <v>0</v>
+      </c>
+      <c r="D457" s="7">
+        <v>1</v>
+      </c>
+      <c r="E457" s="7">
+        <v>0</v>
+      </c>
+      <c r="F457" s="7">
+        <v>0</v>
+      </c>
+      <c r="G457" s="7"/>
+      <c r="H457" s="7"/>
+      <c r="I457" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J457" s="6"/>
+      <c r="K457" s="6" t="s">
         <v>535</v>
       </c>
     </row>
@@ -16163,13 +16317,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P191"/>
+  <dimension ref="A1:P200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23554,6 +23708,322 @@
         <v>41</v>
       </c>
     </row>
+    <row r="192" spans="1:13" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="B192" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C192" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="D192" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="E192" s="27">
+        <v>5</v>
+      </c>
+      <c r="F192" s="26">
+        <v>1000</v>
+      </c>
+      <c r="G192" s="25">
+        <v>14489</v>
+      </c>
+      <c r="H192" s="25">
+        <v>36526</v>
+      </c>
+      <c r="I192" s="26" t="s">
+        <v>626</v>
+      </c>
+      <c r="J192" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L192" s="21"/>
+      <c r="M192" s="26" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="B193" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="D193" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="E193" s="27">
+        <v>5</v>
+      </c>
+      <c r="F193" s="26">
+        <v>1000</v>
+      </c>
+      <c r="G193" s="25">
+        <v>14489</v>
+      </c>
+      <c r="H193" s="25">
+        <v>36526</v>
+      </c>
+      <c r="J193" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M193" s="26" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="17" t="s">
+        <v>625</v>
+      </c>
+      <c r="B194" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="D194" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="E194" s="27">
+        <v>5</v>
+      </c>
+      <c r="F194" s="26">
+        <v>1000</v>
+      </c>
+      <c r="G194" s="25">
+        <v>14489</v>
+      </c>
+      <c r="H194" s="25">
+        <v>36526</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="J194" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M194" s="26" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="B195" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="D195" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="E195" s="27">
+        <v>5</v>
+      </c>
+      <c r="F195" s="26">
+        <v>1000</v>
+      </c>
+      <c r="G195" s="25">
+        <v>14489</v>
+      </c>
+      <c r="H195" s="25">
+        <v>36526</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="J195" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="M195" s="26" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="B196" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="C196" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="D196" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="E196" s="27">
+        <v>5</v>
+      </c>
+      <c r="F196" s="26">
+        <v>1000</v>
+      </c>
+      <c r="G196" s="25">
+        <v>14489</v>
+      </c>
+      <c r="H196" s="25">
+        <v>36526</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="J196" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="M196" s="26" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="B197" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="D197" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="E197" s="27">
+        <v>5</v>
+      </c>
+      <c r="F197" s="26">
+        <v>1000</v>
+      </c>
+      <c r="G197" s="25">
+        <v>14489</v>
+      </c>
+      <c r="H197" s="25">
+        <v>36526</v>
+      </c>
+      <c r="I197" s="26" t="s">
+        <v>635</v>
+      </c>
+      <c r="J197" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="M197" s="26" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" s="26" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="B198" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="C198" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="D198" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="E198" s="27">
+        <v>20</v>
+      </c>
+      <c r="F198" s="26">
+        <v>1000</v>
+      </c>
+      <c r="G198" s="25">
+        <v>14489</v>
+      </c>
+      <c r="H198" s="25">
+        <v>36526</v>
+      </c>
+      <c r="I198" s="26" t="s">
+        <v>639</v>
+      </c>
+      <c r="J198" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L198" s="21"/>
+      <c r="M198" s="26" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" s="26" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="B199" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C199" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="D199" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="E199" s="27">
+        <v>7</v>
+      </c>
+      <c r="F199" s="26">
+        <v>1000</v>
+      </c>
+      <c r="G199" s="25">
+        <v>14489</v>
+      </c>
+      <c r="H199" s="25">
+        <v>36526</v>
+      </c>
+      <c r="I199" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="J199" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L199" s="21"/>
+      <c r="M199" s="26" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" s="26" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="B200" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="C200" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="D200" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="E200" s="27">
+        <v>4</v>
+      </c>
+      <c r="F200" s="26">
+        <v>1000</v>
+      </c>
+      <c r="G200" s="25">
+        <v>14489</v>
+      </c>
+      <c r="H200" s="25">
+        <v>36526</v>
+      </c>
+      <c r="I200" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="J200" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L200" s="21"/>
+      <c r="M200" s="26" t="s">
+        <v>637</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M191" xr:uid="{3E33B360-02B2-431A-9C72-00D27FB0981C}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M191">
@@ -23564,238 +24034,250 @@
     <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A192:A1048576 A1:A164">
-    <cfRule type="duplicateValues" dxfId="88" priority="205"/>
+  <conditionalFormatting sqref="A198:A1048576 A1:A164">
+    <cfRule type="duplicateValues" dxfId="92" priority="210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H152">
-    <cfRule type="cellIs" dxfId="87" priority="179" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="184" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H161">
+    <cfRule type="cellIs" dxfId="90" priority="183" operator="lessThan">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H163">
+    <cfRule type="cellIs" dxfId="89" priority="182" operator="lessThan">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H126">
+    <cfRule type="cellIs" dxfId="88" priority="181" operator="lessThan">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H113">
+    <cfRule type="cellIs" dxfId="87" priority="180" operator="lessThan">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H109">
     <cfRule type="cellIs" dxfId="86" priority="178" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H163">
+  <conditionalFormatting sqref="H110">
     <cfRule type="cellIs" dxfId="85" priority="177" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H126">
+  <conditionalFormatting sqref="H112">
     <cfRule type="cellIs" dxfId="84" priority="176" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H113">
-    <cfRule type="cellIs" dxfId="83" priority="175" operator="lessThan">
+  <conditionalFormatting sqref="G135">
+    <cfRule type="cellIs" dxfId="83" priority="174" operator="lessThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="82" priority="173" operator="lessThan">
-      <formula>#REF!</formula>
-    </cfRule>
+  <conditionalFormatting sqref="A198:A1048576">
+    <cfRule type="duplicateValues" dxfId="82" priority="172"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="81" priority="172" operator="lessThan">
-      <formula>#REF!</formula>
-    </cfRule>
+  <conditionalFormatting sqref="A165">
+    <cfRule type="duplicateValues" dxfId="81" priority="171"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H112">
-    <cfRule type="cellIs" dxfId="80" priority="171" operator="lessThan">
-      <formula>#REF!</formula>
-    </cfRule>
+  <conditionalFormatting sqref="I165">
+    <cfRule type="duplicateValues" dxfId="80" priority="170"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G135">
-    <cfRule type="cellIs" dxfId="79" priority="169" operator="lessThan">
-      <formula>#REF!</formula>
-    </cfRule>
+  <conditionalFormatting sqref="A165">
+    <cfRule type="duplicateValues" dxfId="79" priority="169"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A192:A1048576">
+  <conditionalFormatting sqref="C62">
     <cfRule type="duplicateValues" dxfId="78" priority="167"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A165">
+  <conditionalFormatting sqref="C63">
     <cfRule type="duplicateValues" dxfId="77" priority="166"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I165">
-    <cfRule type="duplicateValues" dxfId="76" priority="165"/>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="duplicateValues" dxfId="76" priority="164"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A165">
-    <cfRule type="duplicateValues" dxfId="75" priority="164"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
+  <conditionalFormatting sqref="A198:A1048576 A1:A165">
+    <cfRule type="duplicateValues" dxfId="75" priority="161"/>
     <cfRule type="duplicateValues" dxfId="74" priority="162"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="duplicateValues" dxfId="73" priority="161"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="duplicateValues" dxfId="72" priority="159"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A192:A1048576 A1:A165">
-    <cfRule type="duplicateValues" dxfId="71" priority="156"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="157"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="163"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158">
-    <cfRule type="duplicateValues" dxfId="68" priority="155"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="160"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A169">
-    <cfRule type="duplicateValues" dxfId="67" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I169">
-    <cfRule type="duplicateValues" dxfId="66" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:A168">
-    <cfRule type="duplicateValues" dxfId="65" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:A169">
-    <cfRule type="duplicateValues" dxfId="64" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="217"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:A169">
-    <cfRule type="duplicateValues" dxfId="63" priority="213"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="214"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="218"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="220"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:A174">
-    <cfRule type="duplicateValues" dxfId="60" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="129"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:A174">
-    <cfRule type="duplicateValues" dxfId="59" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:A174">
-    <cfRule type="duplicateValues" dxfId="58" priority="120"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="127"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175:A181">
-    <cfRule type="duplicateValues" dxfId="55" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="124"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175:A181">
-    <cfRule type="duplicateValues" dxfId="54" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175:A181">
-    <cfRule type="duplicateValues" dxfId="53" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I181">
-    <cfRule type="duplicateValues" dxfId="50" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182">
-    <cfRule type="duplicateValues" dxfId="49" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182">
-    <cfRule type="duplicateValues" dxfId="48" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="115"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182">
-    <cfRule type="duplicateValues" dxfId="47" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182">
-    <cfRule type="duplicateValues" dxfId="44" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B182">
-    <cfRule type="duplicateValues" dxfId="43" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C182">
-    <cfRule type="duplicateValues" dxfId="42" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="111"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A183">
-    <cfRule type="duplicateValues" dxfId="41" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A183">
-    <cfRule type="duplicateValues" dxfId="40" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A183">
-    <cfRule type="duplicateValues" dxfId="39" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184">
-    <cfRule type="duplicateValues" dxfId="36" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I184">
-    <cfRule type="duplicateValues" dxfId="35" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184">
-    <cfRule type="duplicateValues" dxfId="34" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184">
-    <cfRule type="duplicateValues" dxfId="33" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A185:A186">
-    <cfRule type="duplicateValues" dxfId="30" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A185:A186">
-    <cfRule type="duplicateValues" dxfId="29" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A187">
+    <cfRule type="duplicateValues" dxfId="30" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A187">
+    <cfRule type="duplicateValues" dxfId="29" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A188">
     <cfRule type="duplicateValues" dxfId="26" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A187">
-    <cfRule type="duplicateValues" dxfId="25" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="37"/>
+  <conditionalFormatting sqref="I188">
+    <cfRule type="duplicateValues" dxfId="25" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A188">
-    <cfRule type="duplicateValues" dxfId="22" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I188">
-    <cfRule type="duplicateValues" dxfId="21" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A188">
-    <cfRule type="duplicateValues" dxfId="20" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A188">
-    <cfRule type="duplicateValues" dxfId="19" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I189">
-    <cfRule type="duplicateValues" dxfId="16" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I190">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A191">
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I191">
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A191">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A191">
-    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A189">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A189">
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A189">
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A190">
     <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A189">
+  <conditionalFormatting sqref="A190">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
     <cfRule type="duplicateValues" dxfId="5" priority="8"/>
     <cfRule type="duplicateValues" dxfId="4" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="C192:C194">
+    <cfRule type="duplicateValues" dxfId="3" priority="235"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A190">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <conditionalFormatting sqref="C195">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C196">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C197">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Data Sheets/Sandbox.xlsx
+++ b/Data Sheets/Sandbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\themi\AppData\LocalLow\Deep Water Studio\UBOAT\Mods\wip-expanded-convoys-and-shipping-lanes\Data Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A07413-AB09-428E-8F02-1263818D72F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17441876-D278-41BA-89EC-D9A5FA66901B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13125" yWindow="1365" windowWidth="23340" windowHeight="16140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16290,7 +16290,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -16358,7 +16357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>51</v>
       </c>
@@ -16393,7 +16392,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>57</v>
       </c>
@@ -16431,7 +16430,7 @@
       <c r="O3" s="17"/>
       <c r="P3" s="17"/>
     </row>
-    <row r="4" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>61</v>
       </c>
@@ -16469,7 +16468,7 @@
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>63</v>
       </c>
@@ -16507,7 +16506,7 @@
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>67</v>
       </c>
@@ -16545,7 +16544,7 @@
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>68</v>
       </c>
@@ -16583,7 +16582,7 @@
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>69</v>
       </c>
@@ -16621,7 +16620,7 @@
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>478</v>
       </c>
@@ -16663,7 +16662,7 @@
       <c r="O9" s="17"/>
       <c r="P9" s="17"/>
     </row>
-    <row r="10" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>483</v>
       </c>
@@ -16705,7 +16704,7 @@
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>73</v>
       </c>
@@ -16742,7 +16741,7 @@
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>77</v>
       </c>
@@ -16780,7 +16779,7 @@
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>452</v>
       </c>
@@ -16822,7 +16821,7 @@
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
     </row>
-    <row r="14" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>454</v>
       </c>
@@ -16864,7 +16863,7 @@
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>456</v>
       </c>
@@ -16906,7 +16905,7 @@
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>461</v>
       </c>
@@ -16948,7 +16947,7 @@
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>462</v>
       </c>
@@ -16990,7 +16989,7 @@
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>465</v>
       </c>
@@ -17032,7 +17031,7 @@
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>80</v>
       </c>
@@ -17070,7 +17069,7 @@
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
     </row>
-    <row r="20" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>83</v>
       </c>
@@ -17108,7 +17107,7 @@
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
     </row>
-    <row r="21" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>85</v>
       </c>
@@ -17146,7 +17145,7 @@
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
     </row>
-    <row r="22" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>88</v>
       </c>
@@ -17183,7 +17182,7 @@
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
     </row>
-    <row r="23" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>92</v>
       </c>
@@ -17221,7 +17220,7 @@
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
     </row>
-    <row r="24" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>93</v>
       </c>
@@ -17258,7 +17257,7 @@
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
     </row>
-    <row r="25" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>97</v>
       </c>
@@ -17300,7 +17299,7 @@
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
     </row>
-    <row r="26" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>100</v>
       </c>
@@ -17338,7 +17337,7 @@
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
     </row>
-    <row r="27" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>104</v>
       </c>
@@ -17380,7 +17379,7 @@
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
     </row>
-    <row r="28" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>107</v>
       </c>
@@ -17422,7 +17421,7 @@
       <c r="O28" s="17"/>
       <c r="P28" s="17"/>
     </row>
-    <row r="29" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>110</v>
       </c>
@@ -17460,7 +17459,7 @@
       <c r="O29" s="17"/>
       <c r="P29" s="17"/>
     </row>
-    <row r="30" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>589</v>
       </c>
@@ -17501,7 +17500,7 @@
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
     </row>
-    <row r="31" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>597</v>
       </c>
@@ -17542,7 +17541,7 @@
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
     </row>
-    <row r="32" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>600</v>
       </c>
@@ -17584,7 +17583,7 @@
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
     </row>
-    <row r="33" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>602</v>
       </c>
@@ -17667,7 +17666,7 @@
       <c r="O34" s="17"/>
       <c r="P34" s="17"/>
     </row>
-    <row r="35" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>113</v>
       </c>
@@ -17705,7 +17704,7 @@
       <c r="O35" s="17"/>
       <c r="P35" s="17"/>
     </row>
-    <row r="36" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>117</v>
       </c>
@@ -17742,7 +17741,7 @@
       <c r="O36" s="17"/>
       <c r="P36" s="17"/>
     </row>
-    <row r="37" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>118</v>
       </c>
@@ -17779,7 +17778,7 @@
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
     </row>
-    <row r="38" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>119</v>
       </c>
@@ -17857,7 +17856,7 @@
       <c r="O39" s="17"/>
       <c r="P39" s="17"/>
     </row>
-    <row r="40" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>120</v>
       </c>
@@ -17895,7 +17894,7 @@
       <c r="O40" s="17"/>
       <c r="P40" s="17"/>
     </row>
-    <row r="41" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>123</v>
       </c>
@@ -17932,7 +17931,7 @@
       <c r="O41" s="17"/>
       <c r="P41" s="17"/>
     </row>
-    <row r="42" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>127</v>
       </c>
@@ -17970,7 +17969,7 @@
       <c r="O42" s="17"/>
       <c r="P42" s="17"/>
     </row>
-    <row r="43" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>130</v>
       </c>
@@ -18008,7 +18007,7 @@
       <c r="O43" s="17"/>
       <c r="P43" s="17"/>
     </row>
-    <row r="44" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>131</v>
       </c>
@@ -18046,7 +18045,7 @@
       <c r="O44" s="17"/>
       <c r="P44" s="17"/>
     </row>
-    <row r="45" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>133</v>
       </c>
@@ -18084,7 +18083,7 @@
       <c r="O45" s="17"/>
       <c r="P45" s="17"/>
     </row>
-    <row r="46" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>137</v>
       </c>
@@ -18126,7 +18125,7 @@
       <c r="O46" s="17"/>
       <c r="P46" s="17"/>
     </row>
-    <row r="47" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>140</v>
       </c>
@@ -18164,7 +18163,7 @@
       <c r="O47" s="17"/>
       <c r="P47" s="17"/>
     </row>
-    <row r="48" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>143</v>
       </c>
@@ -18202,7 +18201,7 @@
       <c r="O48" s="17"/>
       <c r="P48" s="17"/>
     </row>
-    <row r="49" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>146</v>
       </c>
@@ -18239,7 +18238,7 @@
       <c r="O49" s="17"/>
       <c r="P49" s="17"/>
     </row>
-    <row r="50" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>149</v>
       </c>
@@ -18277,7 +18276,7 @@
       <c r="O50" s="17"/>
       <c r="P50" s="17"/>
     </row>
-    <row r="51" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>150</v>
       </c>
@@ -18315,7 +18314,7 @@
       <c r="O51" s="17"/>
       <c r="P51" s="17"/>
     </row>
-    <row r="52" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>151</v>
       </c>
@@ -18353,7 +18352,7 @@
       <c r="O52" s="17"/>
       <c r="P52" s="17"/>
     </row>
-    <row r="53" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>155</v>
       </c>
@@ -18391,7 +18390,7 @@
       <c r="O53" s="17"/>
       <c r="P53" s="17"/>
     </row>
-    <row r="54" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>158</v>
       </c>
@@ -18429,7 +18428,7 @@
       <c r="O54" s="17"/>
       <c r="P54" s="17"/>
     </row>
-    <row r="55" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>159</v>
       </c>
@@ -18467,7 +18466,7 @@
       <c r="O55" s="17"/>
       <c r="P55" s="17"/>
     </row>
-    <row r="56" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>160</v>
       </c>
@@ -18505,7 +18504,7 @@
       <c r="O56" s="17"/>
       <c r="P56" s="17"/>
     </row>
-    <row r="57" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>163</v>
       </c>
@@ -18542,7 +18541,7 @@
       <c r="O57" s="17"/>
       <c r="P57" s="17"/>
     </row>
-    <row r="58" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>166</v>
       </c>
@@ -18580,7 +18579,7 @@
       <c r="O58" s="17"/>
       <c r="P58" s="17"/>
     </row>
-    <row r="59" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>169</v>
       </c>
@@ -18622,7 +18621,7 @@
       <c r="O59" s="17"/>
       <c r="P59" s="17"/>
     </row>
-    <row r="60" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>171</v>
       </c>
@@ -18664,7 +18663,7 @@
       <c r="O60" s="17"/>
       <c r="P60" s="17"/>
     </row>
-    <row r="61" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>174</v>
       </c>
@@ -18702,7 +18701,7 @@
       <c r="O61" s="17"/>
       <c r="P61" s="17"/>
     </row>
-    <row r="62" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>177</v>
       </c>
@@ -18740,7 +18739,7 @@
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
     </row>
-    <row r="63" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>178</v>
       </c>
@@ -18778,7 +18777,7 @@
       <c r="O63" s="17"/>
       <c r="P63" s="17"/>
     </row>
-    <row r="64" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
         <v>181</v>
       </c>
@@ -18820,7 +18819,7 @@
       <c r="O64" s="17"/>
       <c r="P64" s="17"/>
     </row>
-    <row r="65" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>486</v>
       </c>
@@ -18860,7 +18859,7 @@
       <c r="O65" s="17"/>
       <c r="P65" s="17"/>
     </row>
-    <row r="66" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>184</v>
       </c>
@@ -18898,7 +18897,7 @@
       <c r="O66" s="17"/>
       <c r="P66" s="17"/>
     </row>
-    <row r="67" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>188</v>
       </c>
@@ -18936,7 +18935,7 @@
       <c r="O67" s="17"/>
       <c r="P67" s="17"/>
     </row>
-    <row r="68" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>190</v>
       </c>
@@ -18974,7 +18973,7 @@
       <c r="O68" s="17"/>
       <c r="P68" s="17"/>
     </row>
-    <row r="69" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>191</v>
       </c>
@@ -19012,7 +19011,7 @@
       <c r="O69" s="17"/>
       <c r="P69" s="17"/>
     </row>
-    <row r="70" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
         <v>193</v>
       </c>
@@ -19054,7 +19053,7 @@
       <c r="O70" s="17"/>
       <c r="P70" s="17"/>
     </row>
-    <row r="71" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>197</v>
       </c>
@@ -19092,7 +19091,7 @@
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
     </row>
-    <row r="72" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>200</v>
       </c>
@@ -19130,7 +19129,7 @@
       <c r="O72" s="17"/>
       <c r="P72" s="17"/>
     </row>
-    <row r="73" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>202</v>
       </c>
@@ -19166,7 +19165,7 @@
       <c r="O73" s="17"/>
       <c r="P73" s="17"/>
     </row>
-    <row r="74" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>205</v>
       </c>
@@ -19202,7 +19201,7 @@
       <c r="O74" s="17"/>
       <c r="P74" s="17"/>
     </row>
-    <row r="75" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
         <v>209</v>
       </c>
@@ -19240,7 +19239,7 @@
       <c r="O75" s="17"/>
       <c r="P75" s="17"/>
     </row>
-    <row r="76" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
         <v>210</v>
       </c>
@@ -19278,7 +19277,7 @@
       <c r="O76" s="17"/>
       <c r="P76" s="17"/>
     </row>
-    <row r="77" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
         <v>212</v>
       </c>
@@ -19320,7 +19319,7 @@
       <c r="O77" s="17"/>
       <c r="P77" s="17"/>
     </row>
-    <row r="78" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>216</v>
       </c>
@@ -19358,7 +19357,7 @@
       <c r="O78" s="17"/>
       <c r="P78" s="17"/>
     </row>
-    <row r="79" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>219</v>
       </c>
@@ -19396,7 +19395,7 @@
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
     </row>
-    <row r="80" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
         <v>220</v>
       </c>
@@ -19434,7 +19433,7 @@
       <c r="O80" s="17"/>
       <c r="P80" s="17"/>
     </row>
-    <row r="81" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>222</v>
       </c>
@@ -19472,7 +19471,7 @@
       <c r="O81" s="17"/>
       <c r="P81" s="17"/>
     </row>
-    <row r="82" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
         <v>224</v>
       </c>
@@ -19508,7 +19507,7 @@
       <c r="O82" s="17"/>
       <c r="P82" s="17"/>
     </row>
-    <row r="83" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
         <v>225</v>
       </c>
@@ -19544,7 +19543,7 @@
       <c r="O83" s="17"/>
       <c r="P83" s="17"/>
     </row>
-    <row r="84" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>226</v>
       </c>
@@ -19580,7 +19579,7 @@
       <c r="O84" s="17"/>
       <c r="P84" s="17"/>
     </row>
-    <row r="85" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>229</v>
       </c>
@@ -19618,7 +19617,7 @@
       <c r="O85" s="17"/>
       <c r="P85" s="17"/>
     </row>
-    <row r="86" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
         <v>231</v>
       </c>
@@ -19656,7 +19655,7 @@
       <c r="O86" s="17"/>
       <c r="P86" s="17"/>
     </row>
-    <row r="87" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
         <v>232</v>
       </c>
@@ -19694,7 +19693,7 @@
       <c r="O87" s="17"/>
       <c r="P87" s="17"/>
     </row>
-    <row r="88" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>236</v>
       </c>
@@ -19732,7 +19731,7 @@
       <c r="O88" s="17"/>
       <c r="P88" s="17"/>
     </row>
-    <row r="89" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
         <v>239</v>
       </c>
@@ -19770,7 +19769,7 @@
       <c r="O89" s="17"/>
       <c r="P89" s="17"/>
     </row>
-    <row r="90" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
         <v>242</v>
       </c>
@@ -19808,7 +19807,7 @@
       <c r="O90" s="17"/>
       <c r="P90" s="17"/>
     </row>
-    <row r="91" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
         <v>243</v>
       </c>
@@ -19846,7 +19845,7 @@
       <c r="O91" s="17"/>
       <c r="P91" s="17"/>
     </row>
-    <row r="92" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="24" t="s">
         <v>244</v>
       </c>
@@ -19884,7 +19883,7 @@
       <c r="O92" s="17"/>
       <c r="P92" s="17"/>
     </row>
-    <row r="93" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="26" t="s">
         <v>506</v>
       </c>
@@ -19926,7 +19925,7 @@
       <c r="O93" s="17"/>
       <c r="P93" s="17"/>
     </row>
-    <row r="94" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
         <v>505</v>
       </c>
@@ -19968,7 +19967,7 @@
       <c r="O94" s="17"/>
       <c r="P94" s="17"/>
     </row>
-    <row r="95" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="26" t="s">
         <v>38</v>
       </c>
@@ -20010,7 +20009,7 @@
       <c r="O95" s="17"/>
       <c r="P95" s="17"/>
     </row>
-    <row r="96" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>245</v>
       </c>
@@ -20046,7 +20045,7 @@
       <c r="O96" s="17"/>
       <c r="P96" s="17"/>
     </row>
-    <row r="97" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="18" t="s">
         <v>249</v>
       </c>
@@ -20084,7 +20083,7 @@
       <c r="O97" s="17"/>
       <c r="P97" s="17"/>
     </row>
-    <row r="98" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>548</v>
       </c>
@@ -20125,7 +20124,7 @@
       <c r="O98" s="17"/>
       <c r="P98" s="17"/>
     </row>
-    <row r="99" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
         <v>551</v>
       </c>
@@ -20167,7 +20166,7 @@
       <c r="O99" s="17"/>
       <c r="P99" s="17"/>
     </row>
-    <row r="100" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
         <v>554</v>
       </c>
@@ -20209,7 +20208,7 @@
       <c r="O100" s="17"/>
       <c r="P100" s="17"/>
     </row>
-    <row r="101" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
         <v>557</v>
       </c>
@@ -20251,7 +20250,7 @@
       <c r="O101" s="17"/>
       <c r="P101" s="17"/>
     </row>
-    <row r="102" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="26" t="s">
         <v>250</v>
       </c>
@@ -20293,7 +20292,7 @@
       <c r="O102" s="17"/>
       <c r="P102" s="17"/>
     </row>
-    <row r="103" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
         <v>256</v>
       </c>
@@ -20331,7 +20330,7 @@
       <c r="O103" s="17"/>
       <c r="P103" s="17"/>
     </row>
-    <row r="104" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
         <v>594</v>
       </c>
@@ -20373,7 +20372,7 @@
       <c r="O104" s="17"/>
       <c r="P104" s="17"/>
     </row>
-    <row r="105" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
         <v>604</v>
       </c>
@@ -20415,7 +20414,7 @@
       <c r="O105" s="17"/>
       <c r="P105" s="17"/>
     </row>
-    <row r="106" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
         <v>610</v>
       </c>
@@ -20457,7 +20456,7 @@
       <c r="O106" s="17"/>
       <c r="P106" s="17"/>
     </row>
-    <row r="107" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>609</v>
       </c>
@@ -20499,7 +20498,7 @@
       <c r="O107" s="17"/>
       <c r="P107" s="17"/>
     </row>
-    <row r="108" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
         <v>608</v>
       </c>
@@ -20541,7 +20540,7 @@
       <c r="O108" s="17"/>
       <c r="P108" s="17"/>
     </row>
-    <row r="109" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
         <v>257</v>
       </c>
@@ -20579,7 +20578,7 @@
       <c r="O109" s="17"/>
       <c r="P109" s="17"/>
     </row>
-    <row r="110" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
         <v>260</v>
       </c>
@@ -20617,7 +20616,7 @@
       <c r="O110" s="17"/>
       <c r="P110" s="17"/>
     </row>
-    <row r="111" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>261</v>
       </c>
@@ -20655,7 +20654,7 @@
       <c r="O111" s="17"/>
       <c r="P111" s="17"/>
     </row>
-    <row r="112" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>262</v>
       </c>
@@ -20695,7 +20694,7 @@
       <c r="O112" s="17"/>
       <c r="P112" s="17"/>
     </row>
-    <row r="113" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
         <v>560</v>
       </c>
@@ -20737,7 +20736,7 @@
       <c r="O113" s="17"/>
       <c r="P113" s="17"/>
     </row>
-    <row r="114" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
         <v>562</v>
       </c>
@@ -20779,7 +20778,7 @@
       <c r="O114" s="17"/>
       <c r="P114" s="17"/>
     </row>
-    <row r="115" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
         <v>565</v>
       </c>
@@ -20821,7 +20820,7 @@
       <c r="O115" s="17"/>
       <c r="P115" s="17"/>
     </row>
-    <row r="116" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
         <v>567</v>
       </c>
@@ -20862,7 +20861,7 @@
       <c r="O116" s="17"/>
       <c r="P116" s="17"/>
     </row>
-    <row r="117" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="s">
         <v>570</v>
       </c>
@@ -20904,7 +20903,7 @@
       <c r="O117" s="17"/>
       <c r="P117" s="17"/>
     </row>
-    <row r="118" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
         <v>267</v>
       </c>
@@ -20942,7 +20941,7 @@
       <c r="O118" s="17"/>
       <c r="P118" s="17"/>
     </row>
-    <row r="119" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
         <v>268</v>
       </c>
@@ -20979,7 +20978,7 @@
       <c r="O119" s="17"/>
       <c r="P119" s="17"/>
     </row>
-    <row r="120" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
         <v>271</v>
       </c>
@@ -21017,7 +21016,7 @@
       <c r="O120" s="17"/>
       <c r="P120" s="17"/>
     </row>
-    <row r="121" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="s">
         <v>482</v>
       </c>
@@ -21059,7 +21058,7 @@
       <c r="O121" s="17"/>
       <c r="P121" s="17"/>
     </row>
-    <row r="122" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="18" t="s">
         <v>274</v>
       </c>
@@ -21097,7 +21096,7 @@
       <c r="O122" s="17"/>
       <c r="P122" s="17"/>
     </row>
-    <row r="123" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
         <v>277</v>
       </c>
@@ -21135,7 +21134,7 @@
       <c r="O123" s="17"/>
       <c r="P123" s="17"/>
     </row>
-    <row r="124" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
         <v>280</v>
       </c>
@@ -21173,7 +21172,7 @@
       <c r="O124" s="17"/>
       <c r="P124" s="17"/>
     </row>
-    <row r="125" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
         <v>281</v>
       </c>
@@ -21211,7 +21210,7 @@
       <c r="O125" s="17"/>
       <c r="P125" s="17"/>
     </row>
-    <row r="126" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
         <v>284</v>
       </c>
@@ -21249,7 +21248,7 @@
       <c r="O126" s="17"/>
       <c r="P126" s="17"/>
     </row>
-    <row r="127" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
         <v>288</v>
       </c>
@@ -21291,7 +21290,7 @@
       <c r="O127" s="17"/>
       <c r="P127" s="17"/>
     </row>
-    <row r="128" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>290</v>
       </c>
@@ -21333,7 +21332,7 @@
       <c r="O128" s="17"/>
       <c r="P128" s="17"/>
     </row>
-    <row r="129" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
         <v>472</v>
       </c>
@@ -21375,7 +21374,7 @@
       <c r="O129" s="17"/>
       <c r="P129" s="17"/>
     </row>
-    <row r="130" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
         <v>292</v>
       </c>
@@ -21413,7 +21412,7 @@
       <c r="O130" s="17"/>
       <c r="P130" s="17"/>
     </row>
-    <row r="131" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
         <v>295</v>
       </c>
@@ -21455,7 +21454,7 @@
       <c r="O131" s="17"/>
       <c r="P131" s="17"/>
     </row>
-    <row r="132" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
         <v>297</v>
       </c>
@@ -21497,7 +21496,7 @@
       <c r="O132" s="17"/>
       <c r="P132" s="17"/>
     </row>
-    <row r="133" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="18" t="s">
         <v>300</v>
       </c>
@@ -21539,7 +21538,7 @@
       <c r="O133" s="17"/>
       <c r="P133" s="17"/>
     </row>
-    <row r="134" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
         <v>303</v>
       </c>
@@ -21577,7 +21576,7 @@
       <c r="O134" s="17"/>
       <c r="P134" s="17"/>
     </row>
-    <row r="135" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="s">
         <v>306</v>
       </c>
@@ -21615,7 +21614,7 @@
       <c r="O135" s="17"/>
       <c r="P135" s="17"/>
     </row>
-    <row r="136" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
         <v>307</v>
       </c>
@@ -21652,7 +21651,7 @@
       <c r="O136" s="17"/>
       <c r="P136" s="17"/>
     </row>
-    <row r="137" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="s">
         <v>308</v>
       </c>
@@ -21690,7 +21689,7 @@
       <c r="O137" s="17"/>
       <c r="P137" s="17"/>
     </row>
-    <row r="138" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="18" t="s">
         <v>311</v>
       </c>
@@ -21728,7 +21727,7 @@
       <c r="O138" s="17"/>
       <c r="P138" s="17"/>
     </row>
-    <row r="139" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="s">
         <v>312</v>
       </c>
@@ -21766,7 +21765,7 @@
       <c r="O139" s="17"/>
       <c r="P139" s="17"/>
     </row>
-    <row r="140" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
         <v>313</v>
       </c>
@@ -21804,7 +21803,7 @@
       <c r="O140" s="17"/>
       <c r="P140" s="17"/>
     </row>
-    <row r="141" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
         <v>317</v>
       </c>
@@ -21846,7 +21845,7 @@
       <c r="O141" s="17"/>
       <c r="P141" s="17"/>
     </row>
-    <row r="142" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
         <v>320</v>
       </c>
@@ -21884,7 +21883,7 @@
       <c r="O142" s="17"/>
       <c r="P142" s="17"/>
     </row>
-    <row r="143" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
         <v>322</v>
       </c>
@@ -21926,7 +21925,7 @@
       <c r="O143" s="17"/>
       <c r="P143" s="17"/>
     </row>
-    <row r="144" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
         <v>325</v>
       </c>
@@ -21968,7 +21967,7 @@
       <c r="O144" s="17"/>
       <c r="P144" s="17"/>
     </row>
-    <row r="145" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
         <v>468</v>
       </c>
@@ -22010,7 +22009,7 @@
       <c r="O145" s="17"/>
       <c r="P145" s="17"/>
     </row>
-    <row r="146" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
         <v>469</v>
       </c>
@@ -22052,7 +22051,7 @@
       <c r="O146" s="17"/>
       <c r="P146" s="17"/>
     </row>
-    <row r="147" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
         <v>484</v>
       </c>
@@ -22094,7 +22093,7 @@
       <c r="O147" s="17"/>
       <c r="P147" s="17"/>
     </row>
-    <row r="148" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
         <v>330</v>
       </c>
@@ -22131,7 +22130,7 @@
       <c r="O148" s="17"/>
       <c r="P148" s="17"/>
     </row>
-    <row r="149" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="26" t="s">
         <v>333</v>
       </c>
@@ -22172,7 +22171,7 @@
       <c r="O149" s="17"/>
       <c r="P149" s="17"/>
     </row>
-    <row r="150" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="26" t="s">
         <v>573</v>
       </c>
@@ -22255,7 +22254,7 @@
       <c r="O151" s="17"/>
       <c r="P151" s="17"/>
     </row>
-    <row r="152" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="26" t="s">
         <v>575</v>
       </c>
@@ -22297,7 +22296,7 @@
       <c r="O152" s="17"/>
       <c r="P152" s="17"/>
     </row>
-    <row r="153" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="26" t="s">
         <v>577</v>
       </c>
@@ -22338,7 +22337,7 @@
       <c r="O153" s="17"/>
       <c r="P153" s="17"/>
     </row>
-    <row r="154" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="26" t="s">
         <v>579</v>
       </c>
@@ -22380,7 +22379,7 @@
       <c r="O154" s="17"/>
       <c r="P154" s="17"/>
     </row>
-    <row r="155" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="26" t="s">
         <v>581</v>
       </c>
@@ -22422,7 +22421,7 @@
       <c r="O155" s="17"/>
       <c r="P155" s="17"/>
     </row>
-    <row r="156" spans="1:16" s="17" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="26" t="s">
         <v>583</v>
       </c>
@@ -22460,7 +22459,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="157" spans="1:16" s="17" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="26" t="s">
         <v>586</v>
       </c>
@@ -22498,7 +22497,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="26" t="s">
         <v>339</v>
       </c>
@@ -22538,7 +22537,7 @@
       <c r="O158" s="17"/>
       <c r="P158" s="17"/>
     </row>
-    <row r="159" spans="1:16" s="17" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
         <v>340</v>
       </c>
@@ -22571,7 +22570,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="160" spans="1:16" s="17" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="17" t="s">
         <v>341</v>
       </c>
@@ -22604,7 +22603,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="17" t="s">
         <v>344</v>
       </c>
@@ -22646,7 +22645,7 @@
       <c r="O161" s="17"/>
       <c r="P161" s="17"/>
     </row>
-    <row r="162" spans="1:16" s="17" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
         <v>346</v>
       </c>
@@ -22679,7 +22678,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="163" spans="1:16" s="17" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
         <v>350</v>
       </c>
@@ -22712,7 +22711,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="164" spans="1:16" s="17" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
         <v>353</v>
       </c>
@@ -22745,7 +22744,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="165" spans="1:16" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="17" t="s">
         <v>354</v>
       </c>
@@ -22778,7 +22777,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="166" spans="1:16" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="17" t="s">
         <v>355</v>
       </c>
@@ -22811,7 +22810,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="167" spans="1:16" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
         <v>356</v>
       </c>
@@ -22844,7 +22843,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="168" spans="1:16" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="26" t="s">
         <v>359</v>
       </c>
@@ -22882,7 +22881,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="169" spans="1:16" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="26" t="s">
         <v>361</v>
       </c>
@@ -22920,7 +22919,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="170" spans="1:16" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="18" t="s">
         <v>364</v>
       </c>
@@ -22953,7 +22952,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="171" spans="1:16" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="18" t="s">
         <v>367</v>
       </c>
@@ -22986,7 +22985,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="172" spans="1:16" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="17" t="s">
         <v>369</v>
       </c>
@@ -23019,7 +23018,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="173" spans="1:16" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="18" t="s">
         <v>372</v>
       </c>
@@ -23052,7 +23051,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="174" spans="1:16" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="17" t="s">
         <v>375</v>
       </c>
@@ -23085,7 +23084,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="175" spans="1:16" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="17" t="s">
         <v>473</v>
       </c>
@@ -23123,7 +23122,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="176" spans="1:16" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="17" t="s">
         <v>474</v>
       </c>
@@ -23161,7 +23160,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="177" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="18" t="s">
         <v>381</v>
       </c>
@@ -23194,7 +23193,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="178" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="26" t="s">
         <v>384</v>
       </c>
@@ -23232,7 +23231,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="179" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="18" t="s">
         <v>386</v>
       </c>
@@ -23265,7 +23264,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="180" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
         <v>389</v>
       </c>
@@ -23298,7 +23297,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="181" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="18" t="s">
         <v>390</v>
       </c>
@@ -23331,7 +23330,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="182" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="17" t="s">
         <v>391</v>
       </c>
@@ -23364,7 +23363,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="183" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="s">
         <v>394</v>
       </c>
@@ -23397,7 +23396,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="184" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="17" t="s">
         <v>395</v>
       </c>
@@ -23430,7 +23429,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="185" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="18" t="s">
         <v>397</v>
       </c>
@@ -23463,7 +23462,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="186" spans="1:13" s="17" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="17" t="s">
         <v>399</v>
       </c>
@@ -23496,7 +23495,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="187" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="17" t="s">
         <v>402</v>
       </c>
@@ -23533,7 +23532,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="188" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="24" t="s">
         <v>404</v>
       </c>
@@ -23568,7 +23567,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="189" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="17" t="s">
         <v>44</v>
       </c>
@@ -23606,7 +23605,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="190" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="17" t="s">
         <v>405</v>
       </c>
@@ -23644,7 +23643,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:13" s="26" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="17" t="s">
         <v>621</v>
       </c>
@@ -23680,7 +23679,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="17" t="s">
         <v>622</v>
       </c>
@@ -23712,7 +23711,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="17" t="s">
         <v>623</v>
       </c>
@@ -23747,7 +23746,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="17" t="s">
         <v>627</v>
       </c>
@@ -23782,7 +23781,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="17" t="s">
         <v>630</v>
       </c>
@@ -23817,7 +23816,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="17" t="s">
         <v>632</v>
       </c>
@@ -23852,7 +23851,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="197" spans="1:13" s="26" customFormat="1" ht="28.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" s="26" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="26" t="s">
         <v>642</v>
       </c>
@@ -23888,7 +23887,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="198" spans="1:13" s="26" customFormat="1" ht="28.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" s="26" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="26" t="s">
         <v>643</v>
       </c>
@@ -23924,7 +23923,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="199" spans="1:13" s="26" customFormat="1" ht="28.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" s="26" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="26" t="s">
         <v>644</v>
       </c>
@@ -23962,11 +23961,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M199" xr:uid="{3E33B360-02B2-431A-9C72-00D27FB0981C}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="La Rochelle:La Rochelle Port"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M190">
       <sortCondition ref="A1:A190"/>
     </sortState>

--- a/Data Sheets/Sandbox.xlsx
+++ b/Data Sheets/Sandbox.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\themi\AppData\LocalLow\Deep Water Studio\UBOAT\Mods\wip-expanded-convoys-and-shipping-lanes\Data Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774B74EF-FF4F-4609-8D87-32FE3E720C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC5D1DF-5DCC-4646-B3A4-FC41DD6D4F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13125" yWindow="1365" windowWidth="23340" windowHeight="16140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16287,14 +16287,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="D210" sqref="D210"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16355,7 +16354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>51</v>
       </c>
@@ -16390,7 +16389,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>57</v>
       </c>
@@ -16428,7 +16427,7 @@
       <c r="O3" s="17"/>
       <c r="P3" s="17"/>
     </row>
-    <row r="4" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>61</v>
       </c>
@@ -16466,7 +16465,7 @@
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>63</v>
       </c>
@@ -16504,7 +16503,7 @@
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>67</v>
       </c>
@@ -16542,7 +16541,7 @@
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>68</v>
       </c>
@@ -16580,7 +16579,7 @@
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>69</v>
       </c>
@@ -16618,7 +16617,7 @@
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>477</v>
       </c>
@@ -16660,7 +16659,7 @@
       <c r="O9" s="17"/>
       <c r="P9" s="17"/>
     </row>
-    <row r="10" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>482</v>
       </c>
@@ -16702,7 +16701,7 @@
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>73</v>
       </c>
@@ -16739,7 +16738,7 @@
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>77</v>
       </c>
@@ -16777,7 +16776,7 @@
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>451</v>
       </c>
@@ -16819,7 +16818,7 @@
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
     </row>
-    <row r="14" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>453</v>
       </c>
@@ -16861,7 +16860,7 @@
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>455</v>
       </c>
@@ -16903,7 +16902,7 @@
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>460</v>
       </c>
@@ -16945,7 +16944,7 @@
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>461</v>
       </c>
@@ -16987,7 +16986,7 @@
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
     </row>
-    <row r="18" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>464</v>
       </c>
@@ -17029,7 +17028,7 @@
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
     </row>
-    <row r="19" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>80</v>
       </c>
@@ -17067,7 +17066,7 @@
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
     </row>
-    <row r="20" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>83</v>
       </c>
@@ -17105,7 +17104,7 @@
       <c r="O20" s="17"/>
       <c r="P20" s="17"/>
     </row>
-    <row r="21" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>85</v>
       </c>
@@ -17143,7 +17142,7 @@
       <c r="O21" s="17"/>
       <c r="P21" s="17"/>
     </row>
-    <row r="22" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>88</v>
       </c>
@@ -17180,7 +17179,7 @@
       <c r="O22" s="17"/>
       <c r="P22" s="17"/>
     </row>
-    <row r="23" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>92</v>
       </c>
@@ -17218,7 +17217,7 @@
       <c r="O23" s="17"/>
       <c r="P23" s="17"/>
     </row>
-    <row r="24" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>93</v>
       </c>
@@ -17255,7 +17254,7 @@
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
     </row>
-    <row r="25" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>97</v>
       </c>
@@ -17297,7 +17296,7 @@
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
     </row>
-    <row r="26" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>100</v>
       </c>
@@ -17335,7 +17334,7 @@
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
     </row>
-    <row r="27" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>104</v>
       </c>
@@ -17377,7 +17376,7 @@
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
     </row>
-    <row r="28" spans="1:16" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>107</v>
       </c>
@@ -17419,7 +17418,7 @@
       <c r="O28" s="17"/>
       <c r="P28" s="17"/>
     </row>
-    <row r="29" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>110</v>
       </c>
@@ -17457,7 +17456,7 @@
       <c r="O29" s="17"/>
       <c r="P29" s="17"/>
     </row>
-    <row r="30" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>588</v>
       </c>
@@ -17498,7 +17497,7 @@
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
     </row>
-    <row r="31" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>596</v>
       </c>
@@ -17539,7 +17538,7 @@
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
     </row>
-    <row r="32" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>599</v>
       </c>
@@ -17581,7 +17580,7 @@
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
     </row>
-    <row r="33" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>601</v>
       </c>
@@ -17623,7 +17622,7 @@
       <c r="O33" s="17"/>
       <c r="P33" s="17"/>
     </row>
-    <row r="34" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>591</v>
       </c>
@@ -17664,7 +17663,7 @@
       <c r="O34" s="17"/>
       <c r="P34" s="17"/>
     </row>
-    <row r="35" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>113</v>
       </c>
@@ -17702,7 +17701,7 @@
       <c r="O35" s="17"/>
       <c r="P35" s="17"/>
     </row>
-    <row r="36" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>117</v>
       </c>
@@ -17739,7 +17738,7 @@
       <c r="O36" s="17"/>
       <c r="P36" s="17"/>
     </row>
-    <row r="37" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>118</v>
       </c>
@@ -17776,7 +17775,7 @@
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
     </row>
-    <row r="38" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>119</v>
       </c>
@@ -17813,7 +17812,7 @@
       <c r="O38" s="17"/>
       <c r="P38" s="17"/>
     </row>
-    <row r="39" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>48</v>
       </c>
@@ -17854,7 +17853,7 @@
       <c r="O39" s="17"/>
       <c r="P39" s="17"/>
     </row>
-    <row r="40" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>120</v>
       </c>
@@ -17892,7 +17891,7 @@
       <c r="O40" s="17"/>
       <c r="P40" s="17"/>
     </row>
-    <row r="41" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>123</v>
       </c>
@@ -17929,7 +17928,7 @@
       <c r="O41" s="17"/>
       <c r="P41" s="17"/>
     </row>
-    <row r="42" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>127</v>
       </c>
@@ -17967,7 +17966,7 @@
       <c r="O42" s="17"/>
       <c r="P42" s="17"/>
     </row>
-    <row r="43" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>130</v>
       </c>
@@ -18005,7 +18004,7 @@
       <c r="O43" s="17"/>
       <c r="P43" s="17"/>
     </row>
-    <row r="44" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>131</v>
       </c>
@@ -18043,7 +18042,7 @@
       <c r="O44" s="17"/>
       <c r="P44" s="17"/>
     </row>
-    <row r="45" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>133</v>
       </c>
@@ -18081,7 +18080,7 @@
       <c r="O45" s="17"/>
       <c r="P45" s="17"/>
     </row>
-    <row r="46" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>137</v>
       </c>
@@ -18123,7 +18122,7 @@
       <c r="O46" s="17"/>
       <c r="P46" s="17"/>
     </row>
-    <row r="47" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>140</v>
       </c>
@@ -18161,7 +18160,7 @@
       <c r="O47" s="17"/>
       <c r="P47" s="17"/>
     </row>
-    <row r="48" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>143</v>
       </c>
@@ -18199,7 +18198,7 @@
       <c r="O48" s="17"/>
       <c r="P48" s="17"/>
     </row>
-    <row r="49" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>146</v>
       </c>
@@ -18236,7 +18235,7 @@
       <c r="O49" s="17"/>
       <c r="P49" s="17"/>
     </row>
-    <row r="50" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>149</v>
       </c>
@@ -18274,7 +18273,7 @@
       <c r="O50" s="17"/>
       <c r="P50" s="17"/>
     </row>
-    <row r="51" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>150</v>
       </c>
@@ -18312,7 +18311,7 @@
       <c r="O51" s="17"/>
       <c r="P51" s="17"/>
     </row>
-    <row r="52" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>151</v>
       </c>
@@ -18350,7 +18349,7 @@
       <c r="O52" s="17"/>
       <c r="P52" s="17"/>
     </row>
-    <row r="53" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>155</v>
       </c>
@@ -18388,7 +18387,7 @@
       <c r="O53" s="17"/>
       <c r="P53" s="17"/>
     </row>
-    <row r="54" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>158</v>
       </c>
@@ -18426,7 +18425,7 @@
       <c r="O54" s="17"/>
       <c r="P54" s="17"/>
     </row>
-    <row r="55" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>159</v>
       </c>
@@ -18464,7 +18463,7 @@
       <c r="O55" s="17"/>
       <c r="P55" s="17"/>
     </row>
-    <row r="56" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>160</v>
       </c>
@@ -18502,7 +18501,7 @@
       <c r="O56" s="17"/>
       <c r="P56" s="17"/>
     </row>
-    <row r="57" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>163</v>
       </c>
@@ -18539,7 +18538,7 @@
       <c r="O57" s="17"/>
       <c r="P57" s="17"/>
     </row>
-    <row r="58" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>166</v>
       </c>
@@ -18577,7 +18576,7 @@
       <c r="O58" s="17"/>
       <c r="P58" s="17"/>
     </row>
-    <row r="59" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>169</v>
       </c>
@@ -18619,7 +18618,7 @@
       <c r="O59" s="17"/>
       <c r="P59" s="17"/>
     </row>
-    <row r="60" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>171</v>
       </c>
@@ -18661,7 +18660,7 @@
       <c r="O60" s="17"/>
       <c r="P60" s="17"/>
     </row>
-    <row r="61" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>174</v>
       </c>
@@ -18699,7 +18698,7 @@
       <c r="O61" s="17"/>
       <c r="P61" s="17"/>
     </row>
-    <row r="62" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>177</v>
       </c>
@@ -18737,7 +18736,7 @@
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
     </row>
-    <row r="63" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>178</v>
       </c>
@@ -18775,7 +18774,7 @@
       <c r="O63" s="17"/>
       <c r="P63" s="17"/>
     </row>
-    <row r="64" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="26" t="s">
         <v>181</v>
       </c>
@@ -18817,7 +18816,7 @@
       <c r="O64" s="17"/>
       <c r="P64" s="17"/>
     </row>
-    <row r="65" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>485</v>
       </c>
@@ -18857,7 +18856,7 @@
       <c r="O65" s="17"/>
       <c r="P65" s="17"/>
     </row>
-    <row r="66" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>184</v>
       </c>
@@ -18895,7 +18894,7 @@
       <c r="O66" s="17"/>
       <c r="P66" s="17"/>
     </row>
-    <row r="67" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18" t="s">
         <v>188</v>
       </c>
@@ -18933,7 +18932,7 @@
       <c r="O67" s="17"/>
       <c r="P67" s="17"/>
     </row>
-    <row r="68" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>190</v>
       </c>
@@ -18971,7 +18970,7 @@
       <c r="O68" s="17"/>
       <c r="P68" s="17"/>
     </row>
-    <row r="69" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>191</v>
       </c>
@@ -19009,7 +19008,7 @@
       <c r="O69" s="17"/>
       <c r="P69" s="17"/>
     </row>
-    <row r="70" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="26" t="s">
         <v>193</v>
       </c>
@@ -19051,7 +19050,7 @@
       <c r="O70" s="17"/>
       <c r="P70" s="17"/>
     </row>
-    <row r="71" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>197</v>
       </c>
@@ -19089,7 +19088,7 @@
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
     </row>
-    <row r="72" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>200</v>
       </c>
@@ -19127,7 +19126,7 @@
       <c r="O72" s="17"/>
       <c r="P72" s="17"/>
     </row>
-    <row r="73" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>202</v>
       </c>
@@ -19163,7 +19162,7 @@
       <c r="O73" s="17"/>
       <c r="P73" s="17"/>
     </row>
-    <row r="74" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>205</v>
       </c>
@@ -19199,7 +19198,7 @@
       <c r="O74" s="17"/>
       <c r="P74" s="17"/>
     </row>
-    <row r="75" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
         <v>209</v>
       </c>
@@ -19237,7 +19236,7 @@
       <c r="O75" s="17"/>
       <c r="P75" s="17"/>
     </row>
-    <row r="76" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
         <v>210</v>
       </c>
@@ -19275,7 +19274,7 @@
       <c r="O76" s="17"/>
       <c r="P76" s="17"/>
     </row>
-    <row r="77" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
         <v>212</v>
       </c>
@@ -19317,7 +19316,7 @@
       <c r="O77" s="17"/>
       <c r="P77" s="17"/>
     </row>
-    <row r="78" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>216</v>
       </c>
@@ -19355,7 +19354,7 @@
       <c r="O78" s="17"/>
       <c r="P78" s="17"/>
     </row>
-    <row r="79" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18" t="s">
         <v>219</v>
       </c>
@@ -19393,7 +19392,7 @@
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
     </row>
-    <row r="80" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18" t="s">
         <v>220</v>
       </c>
@@ -19431,7 +19430,7 @@
       <c r="O80" s="17"/>
       <c r="P80" s="17"/>
     </row>
-    <row r="81" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>222</v>
       </c>
@@ -19469,7 +19468,7 @@
       <c r="O81" s="17"/>
       <c r="P81" s="17"/>
     </row>
-    <row r="82" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="18" t="s">
         <v>224</v>
       </c>
@@ -19505,7 +19504,7 @@
       <c r="O82" s="17"/>
       <c r="P82" s="17"/>
     </row>
-    <row r="83" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="18" t="s">
         <v>225</v>
       </c>
@@ -19541,7 +19540,7 @@
       <c r="O83" s="17"/>
       <c r="P83" s="17"/>
     </row>
-    <row r="84" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18" t="s">
         <v>226</v>
       </c>
@@ -19577,7 +19576,7 @@
       <c r="O84" s="17"/>
       <c r="P84" s="17"/>
     </row>
-    <row r="85" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>229</v>
       </c>
@@ -19615,7 +19614,7 @@
       <c r="O85" s="17"/>
       <c r="P85" s="17"/>
     </row>
-    <row r="86" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="18" t="s">
         <v>231</v>
       </c>
@@ -19653,7 +19652,7 @@
       <c r="O86" s="17"/>
       <c r="P86" s="17"/>
     </row>
-    <row r="87" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
         <v>232</v>
       </c>
@@ -19691,7 +19690,7 @@
       <c r="O87" s="17"/>
       <c r="P87" s="17"/>
     </row>
-    <row r="88" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="18" t="s">
         <v>236</v>
       </c>
@@ -19729,7 +19728,7 @@
       <c r="O88" s="17"/>
       <c r="P88" s="17"/>
     </row>
-    <row r="89" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
         <v>239</v>
       </c>
@@ -19767,7 +19766,7 @@
       <c r="O89" s="17"/>
       <c r="P89" s="17"/>
     </row>
-    <row r="90" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
         <v>242</v>
       </c>
@@ -19805,7 +19804,7 @@
       <c r="O90" s="17"/>
       <c r="P90" s="17"/>
     </row>
-    <row r="91" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
         <v>243</v>
       </c>
@@ -19969,7 +19968,7 @@
       <c r="O94" s="17"/>
       <c r="P94" s="17"/>
     </row>
-    <row r="95" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="18" t="s">
         <v>244</v>
       </c>
@@ -20005,7 +20004,7 @@
       <c r="O95" s="17"/>
       <c r="P95" s="17"/>
     </row>
-    <row r="96" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
         <v>248</v>
       </c>
@@ -20043,7 +20042,7 @@
       <c r="O96" s="17"/>
       <c r="P96" s="17"/>
     </row>
-    <row r="97" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
         <v>547</v>
       </c>
@@ -20084,7 +20083,7 @@
       <c r="O97" s="17"/>
       <c r="P97" s="17"/>
     </row>
-    <row r="98" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>550</v>
       </c>
@@ -20126,7 +20125,7 @@
       <c r="O98" s="17"/>
       <c r="P98" s="17"/>
     </row>
-    <row r="99" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
         <v>553</v>
       </c>
@@ -20168,7 +20167,7 @@
       <c r="O99" s="17"/>
       <c r="P99" s="17"/>
     </row>
-    <row r="100" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
         <v>556</v>
       </c>
@@ -20210,7 +20209,7 @@
       <c r="O100" s="17"/>
       <c r="P100" s="17"/>
     </row>
-    <row r="101" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="26" t="s">
         <v>249</v>
       </c>
@@ -20252,7 +20251,7 @@
       <c r="O101" s="17"/>
       <c r="P101" s="17"/>
     </row>
-    <row r="102" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
         <v>255</v>
       </c>
@@ -20290,7 +20289,7 @@
       <c r="O102" s="17"/>
       <c r="P102" s="17"/>
     </row>
-    <row r="103" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
         <v>593</v>
       </c>
@@ -20332,7 +20331,7 @@
       <c r="O103" s="17"/>
       <c r="P103" s="17"/>
     </row>
-    <row r="104" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
         <v>603</v>
       </c>
@@ -20374,7 +20373,7 @@
       <c r="O104" s="17"/>
       <c r="P104" s="17"/>
     </row>
-    <row r="105" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
         <v>609</v>
       </c>
@@ -20416,7 +20415,7 @@
       <c r="O105" s="17"/>
       <c r="P105" s="17"/>
     </row>
-    <row r="106" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
         <v>608</v>
       </c>
@@ -20458,7 +20457,7 @@
       <c r="O106" s="17"/>
       <c r="P106" s="17"/>
     </row>
-    <row r="107" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>607</v>
       </c>
@@ -20500,7 +20499,7 @@
       <c r="O107" s="17"/>
       <c r="P107" s="17"/>
     </row>
-    <row r="108" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
         <v>256</v>
       </c>
@@ -20538,7 +20537,7 @@
       <c r="O108" s="17"/>
       <c r="P108" s="17"/>
     </row>
-    <row r="109" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
         <v>259</v>
       </c>
@@ -20576,7 +20575,7 @@
       <c r="O109" s="17"/>
       <c r="P109" s="17"/>
     </row>
-    <row r="110" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
         <v>260</v>
       </c>
@@ -20614,7 +20613,7 @@
       <c r="O110" s="17"/>
       <c r="P110" s="17"/>
     </row>
-    <row r="111" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>261</v>
       </c>
@@ -20654,7 +20653,7 @@
       <c r="O111" s="17"/>
       <c r="P111" s="17"/>
     </row>
-    <row r="112" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>559</v>
       </c>
@@ -20696,7 +20695,7 @@
       <c r="O112" s="17"/>
       <c r="P112" s="17"/>
     </row>
-    <row r="113" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
         <v>561</v>
       </c>
@@ -20738,7 +20737,7 @@
       <c r="O113" s="17"/>
       <c r="P113" s="17"/>
     </row>
-    <row r="114" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
         <v>564</v>
       </c>
@@ -20780,7 +20779,7 @@
       <c r="O114" s="17"/>
       <c r="P114" s="17"/>
     </row>
-    <row r="115" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
         <v>566</v>
       </c>
@@ -20821,7 +20820,7 @@
       <c r="O115" s="17"/>
       <c r="P115" s="17"/>
     </row>
-    <row r="116" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
         <v>569</v>
       </c>
@@ -20863,7 +20862,7 @@
       <c r="O116" s="17"/>
       <c r="P116" s="17"/>
     </row>
-    <row r="117" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="s">
         <v>266</v>
       </c>
@@ -20901,7 +20900,7 @@
       <c r="O117" s="17"/>
       <c r="P117" s="17"/>
     </row>
-    <row r="118" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="18" t="s">
         <v>267</v>
       </c>
@@ -20938,7 +20937,7 @@
       <c r="O118" s="17"/>
       <c r="P118" s="17"/>
     </row>
-    <row r="119" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
         <v>270</v>
       </c>
@@ -20976,7 +20975,7 @@
       <c r="O119" s="17"/>
       <c r="P119" s="17"/>
     </row>
-    <row r="120" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
         <v>481</v>
       </c>
@@ -21018,7 +21017,7 @@
       <c r="O120" s="17"/>
       <c r="P120" s="17"/>
     </row>
-    <row r="121" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="18" t="s">
         <v>273</v>
       </c>
@@ -21056,7 +21055,7 @@
       <c r="O121" s="17"/>
       <c r="P121" s="17"/>
     </row>
-    <row r="122" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="17" t="s">
         <v>276</v>
       </c>
@@ -21094,7 +21093,7 @@
       <c r="O122" s="17"/>
       <c r="P122" s="17"/>
     </row>
-    <row r="123" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
         <v>279</v>
       </c>
@@ -21132,7 +21131,7 @@
       <c r="O123" s="17"/>
       <c r="P123" s="17"/>
     </row>
-    <row r="124" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="18" t="s">
         <v>280</v>
       </c>
@@ -21170,7 +21169,7 @@
       <c r="O124" s="17"/>
       <c r="P124" s="17"/>
     </row>
-    <row r="125" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
         <v>283</v>
       </c>
@@ -21208,7 +21207,7 @@
       <c r="O125" s="17"/>
       <c r="P125" s="17"/>
     </row>
-    <row r="126" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
         <v>287</v>
       </c>
@@ -21250,7 +21249,7 @@
       <c r="O126" s="17"/>
       <c r="P126" s="17"/>
     </row>
-    <row r="127" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>289</v>
       </c>
@@ -21292,7 +21291,7 @@
       <c r="O127" s="17"/>
       <c r="P127" s="17"/>
     </row>
-    <row r="128" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
         <v>471</v>
       </c>
@@ -21334,7 +21333,7 @@
       <c r="O128" s="17"/>
       <c r="P128" s="17"/>
     </row>
-    <row r="129" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="18" t="s">
         <v>291</v>
       </c>
@@ -21372,7 +21371,7 @@
       <c r="O129" s="17"/>
       <c r="P129" s="17"/>
     </row>
-    <row r="130" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="18" t="s">
         <v>294</v>
       </c>
@@ -21414,7 +21413,7 @@
       <c r="O130" s="17"/>
       <c r="P130" s="17"/>
     </row>
-    <row r="131" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="18" t="s">
         <v>296</v>
       </c>
@@ -21456,7 +21455,7 @@
       <c r="O131" s="17"/>
       <c r="P131" s="17"/>
     </row>
-    <row r="132" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="18" t="s">
         <v>299</v>
       </c>
@@ -21498,7 +21497,7 @@
       <c r="O132" s="17"/>
       <c r="P132" s="17"/>
     </row>
-    <row r="133" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
         <v>302</v>
       </c>
@@ -21536,7 +21535,7 @@
       <c r="O133" s="17"/>
       <c r="P133" s="17"/>
     </row>
-    <row r="134" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
         <v>305</v>
       </c>
@@ -21574,7 +21573,7 @@
       <c r="O134" s="17"/>
       <c r="P134" s="17"/>
     </row>
-    <row r="135" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="s">
         <v>306</v>
       </c>
@@ -21611,7 +21610,7 @@
       <c r="O135" s="17"/>
       <c r="P135" s="17"/>
     </row>
-    <row r="136" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="18" t="s">
         <v>307</v>
       </c>
@@ -21649,7 +21648,7 @@
       <c r="O136" s="17"/>
       <c r="P136" s="17"/>
     </row>
-    <row r="137" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="s">
         <v>310</v>
       </c>
@@ -21687,7 +21686,7 @@
       <c r="O137" s="17"/>
       <c r="P137" s="17"/>
     </row>
-    <row r="138" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="18" t="s">
         <v>311</v>
       </c>
@@ -21725,7 +21724,7 @@
       <c r="O138" s="17"/>
       <c r="P138" s="17"/>
     </row>
-    <row r="139" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
         <v>312</v>
       </c>
@@ -21763,7 +21762,7 @@
       <c r="O139" s="17"/>
       <c r="P139" s="17"/>
     </row>
-    <row r="140" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
         <v>316</v>
       </c>
@@ -21805,7 +21804,7 @@
       <c r="O140" s="17"/>
       <c r="P140" s="17"/>
     </row>
-    <row r="141" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="17" t="s">
         <v>319</v>
       </c>
@@ -21843,7 +21842,7 @@
       <c r="O141" s="17"/>
       <c r="P141" s="17"/>
     </row>
-    <row r="142" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
         <v>321</v>
       </c>
@@ -21885,7 +21884,7 @@
       <c r="O142" s="17"/>
       <c r="P142" s="17"/>
     </row>
-    <row r="143" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
         <v>324</v>
       </c>
@@ -21927,7 +21926,7 @@
       <c r="O143" s="17"/>
       <c r="P143" s="17"/>
     </row>
-    <row r="144" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
         <v>467</v>
       </c>
@@ -21969,7 +21968,7 @@
       <c r="O144" s="17"/>
       <c r="P144" s="17"/>
     </row>
-    <row r="145" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
         <v>468</v>
       </c>
@@ -22011,7 +22010,7 @@
       <c r="O145" s="17"/>
       <c r="P145" s="17"/>
     </row>
-    <row r="146" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
         <v>483</v>
       </c>
@@ -22053,7 +22052,7 @@
       <c r="O146" s="17"/>
       <c r="P146" s="17"/>
     </row>
-    <row r="147" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
         <v>329</v>
       </c>
@@ -22090,7 +22089,7 @@
       <c r="O147" s="17"/>
       <c r="P147" s="17"/>
     </row>
-    <row r="148" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="26" t="s">
         <v>332</v>
       </c>
@@ -22131,7 +22130,7 @@
       <c r="O148" s="17"/>
       <c r="P148" s="17"/>
     </row>
-    <row r="149" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="26" t="s">
         <v>572</v>
       </c>
@@ -22172,7 +22171,7 @@
       <c r="O149" s="17"/>
       <c r="P149" s="17"/>
     </row>
-    <row r="150" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="26" t="s">
         <v>503</v>
       </c>
@@ -22214,7 +22213,7 @@
       <c r="O150" s="17"/>
       <c r="P150" s="17"/>
     </row>
-    <row r="151" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="26" t="s">
         <v>574</v>
       </c>
@@ -22256,7 +22255,7 @@
       <c r="O151" s="17"/>
       <c r="P151" s="17"/>
     </row>
-    <row r="152" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="26" t="s">
         <v>576</v>
       </c>
@@ -22297,7 +22296,7 @@
       <c r="O152" s="17"/>
       <c r="P152" s="17"/>
     </row>
-    <row r="153" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="26" t="s">
         <v>578</v>
       </c>
@@ -22339,7 +22338,7 @@
       <c r="O153" s="17"/>
       <c r="P153" s="17"/>
     </row>
-    <row r="154" spans="1:16" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="26" t="s">
         <v>580</v>
       </c>
@@ -22381,7 +22380,7 @@
       <c r="O154" s="17"/>
       <c r="P154" s="17"/>
     </row>
-    <row r="155" spans="1:16" s="17" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="26" t="s">
         <v>582</v>
       </c>
@@ -22419,7 +22418,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="156" spans="1:16" s="17" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="26" t="s">
         <v>585</v>
       </c>
@@ -22457,7 +22456,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="26" t="s">
         <v>338</v>
       </c>
@@ -22497,7 +22496,7 @@
       <c r="O157" s="17"/>
       <c r="P157" s="17"/>
     </row>
-    <row r="158" spans="1:16" s="17" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="17" t="s">
         <v>339</v>
       </c>
@@ -22530,7 +22529,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:16" s="17" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
         <v>340</v>
       </c>
@@ -22563,7 +22562,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="17" t="s">
         <v>343</v>
       </c>
@@ -22605,7 +22604,7 @@
       <c r="O160" s="17"/>
       <c r="P160" s="17"/>
     </row>
-    <row r="161" spans="1:13" s="17" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="17" t="s">
         <v>345</v>
       </c>
@@ -22638,7 +22637,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="162" spans="1:13" s="17" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
         <v>349</v>
       </c>
@@ -22671,7 +22670,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="163" spans="1:13" s="17" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
         <v>352</v>
       </c>
@@ -22704,7 +22703,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="164" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
         <v>353</v>
       </c>
@@ -22737,7 +22736,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="165" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="17" t="s">
         <v>354</v>
       </c>
@@ -22770,7 +22769,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="166" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="17" t="s">
         <v>355</v>
       </c>
@@ -22803,7 +22802,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="167" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="26" t="s">
         <v>358</v>
       </c>
@@ -22841,7 +22840,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="168" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="26" t="s">
         <v>360</v>
       </c>
@@ -22879,7 +22878,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="169" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="18" t="s">
         <v>363</v>
       </c>
@@ -22912,7 +22911,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="170" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="18" t="s">
         <v>366</v>
       </c>
@@ -22945,7 +22944,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="171" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="17" t="s">
         <v>368</v>
       </c>
@@ -22978,7 +22977,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="172" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="18" t="s">
         <v>371</v>
       </c>
@@ -23011,7 +23010,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="173" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="17" t="s">
         <v>374</v>
       </c>
@@ -23044,7 +23043,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="174" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="17" t="s">
         <v>472</v>
       </c>
@@ -23082,7 +23081,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="175" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="17" t="s">
         <v>473</v>
       </c>
@@ -23120,7 +23119,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="176" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="18" t="s">
         <v>380</v>
       </c>
@@ -23153,7 +23152,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="177" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="26" t="s">
         <v>383</v>
       </c>
@@ -23191,7 +23190,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="178" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="18" t="s">
         <v>385</v>
       </c>
@@ -23224,7 +23223,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="179" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="18" t="s">
         <v>388</v>
       </c>
@@ -23257,7 +23256,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="180" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
         <v>389</v>
       </c>
@@ -23290,7 +23289,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="181" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="17" t="s">
         <v>390</v>
       </c>
@@ -23323,7 +23322,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="182" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="17" t="s">
         <v>393</v>
       </c>
@@ -23356,7 +23355,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="183" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="s">
         <v>394</v>
       </c>
@@ -23389,7 +23388,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="184" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="18" t="s">
         <v>396</v>
       </c>
@@ -23422,7 +23421,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="185" spans="1:13" s="17" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="17" t="s">
         <v>398</v>
       </c>
@@ -23455,7 +23454,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="186" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="17" t="s">
         <v>401</v>
       </c>
@@ -23492,7 +23491,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="187" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="24" t="s">
         <v>403</v>
       </c>
@@ -23527,7 +23526,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="188" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="17" t="s">
         <v>44</v>
       </c>
@@ -23565,7 +23564,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="189" spans="1:13" s="17" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="17" t="s">
         <v>404</v>
       </c>
@@ -23603,7 +23602,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="190" spans="1:13" s="26" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" s="26" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="17" t="s">
         <v>620</v>
       </c>
@@ -23639,7 +23638,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="17" t="s">
         <v>621</v>
       </c>
@@ -23671,7 +23670,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="17" t="s">
         <v>622</v>
       </c>
@@ -23706,7 +23705,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="17" t="s">
         <v>626</v>
       </c>
@@ -23741,7 +23740,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="17" t="s">
         <v>629</v>
       </c>
@@ -23776,7 +23775,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="17" t="s">
         <v>631</v>
       </c>
@@ -23811,7 +23810,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="196" spans="1:13" s="26" customFormat="1" ht="28.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" s="26" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="26" t="s">
         <v>641</v>
       </c>
@@ -23847,7 +23846,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="197" spans="1:13" s="26" customFormat="1" ht="28.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" s="26" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="26" t="s">
         <v>642</v>
       </c>
@@ -23883,7 +23882,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="198" spans="1:13" s="26" customFormat="1" ht="28.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" s="26" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="26" t="s">
         <v>643</v>
       </c>
@@ -23921,11 +23920,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M198" xr:uid="{3E33B360-02B2-431A-9C72-00D27FB0981C}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="La Rochelle"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M189">
       <sortCondition ref="A1:A189"/>
     </sortState>

--- a/Data Sheets/Sandbox.xlsx
+++ b/Data Sheets/Sandbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\themi\AppData\LocalLow\Deep Water Studio\UBOAT\Mods\wip-expanded-convoys-and-shipping-lanes\Data Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33A8028-5E9A-42D5-B9C1-39EA92D31029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC743540-1BBF-4DC5-B53C-84278A42F42E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="30570" windowHeight="19410" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1425" windowWidth="30570" windowHeight="19410" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="436">
   <si>
     <t>Group Name</t>
   </si>
@@ -1338,6 +1338,9 @@
   </si>
   <si>
     <t>Submarine (0, 1, 0.8, 0.5, 0.25, 0.1)</t>
+  </si>
+  <si>
+    <t>Corvette (1, 0.2); Fast Attack Craft (0.25, 1, 0.75, 0.5)</t>
   </si>
 </sst>
 </file>
@@ -16381,13 +16384,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="I77" sqref="I77"/>
+      <selection pane="bottomRight" activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16448,7 +16452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>232</v>
       </c>
@@ -16487,7 +16491,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>234</v>
       </c>
@@ -16528,7 +16532,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
     </row>
-    <row r="4" spans="1:15" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>91</v>
       </c>
@@ -16569,7 +16573,7 @@
       <c r="N4" s="15"/>
       <c r="O4" s="15"/>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>381</v>
       </c>
@@ -16608,7 +16612,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>361</v>
       </c>
@@ -16647,7 +16651,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>326</v>
       </c>
@@ -16688,7 +16692,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>215</v>
       </c>
@@ -16729,7 +16733,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:15" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>365</v>
       </c>
@@ -16768,7 +16772,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:15" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>34</v>
       </c>
@@ -16809,7 +16813,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:15" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="9" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>172</v>
       </c>
@@ -16850,7 +16854,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>338</v>
       </c>
@@ -16891,7 +16895,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>332</v>
       </c>
@@ -16932,7 +16936,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
     </row>
-    <row r="14" spans="1:15" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="23" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>288</v>
       </c>
@@ -16973,7 +16977,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
     </row>
-    <row r="15" spans="1:15" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="23" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>300</v>
       </c>
@@ -17014,7 +17018,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
     </row>
-    <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>317</v>
       </c>
@@ -17055,7 +17059,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
     </row>
-    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>394</v>
       </c>
@@ -17096,7 +17100,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>360</v>
       </c>
@@ -17135,7 +17139,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
     </row>
-    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>379</v>
       </c>
@@ -17174,7 +17178,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
     </row>
-    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>340</v>
       </c>
@@ -17215,7 +17219,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
     </row>
-    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>323</v>
       </c>
@@ -17270,7 +17274,7 @@
         <v>102</v>
       </c>
       <c r="E22" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="23">
         <v>1000</v>
@@ -17311,7 +17315,7 @@
         <v>102</v>
       </c>
       <c r="E23" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="23">
         <v>1000</v>
@@ -17331,10 +17335,10 @@
       <c r="K23" s="23"/>
       <c r="L23" s="19"/>
       <c r="M23" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="25" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>87</v>
       </c>
@@ -17372,7 +17376,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
         <v>122</v>
       </c>
@@ -17413,7 +17417,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
     </row>
-    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>223</v>
       </c>
@@ -17454,7 +17458,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
     </row>
-    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>157</v>
       </c>
@@ -17495,7 +17499,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
     </row>
-    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>204</v>
       </c>
@@ -17536,7 +17540,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
     </row>
-    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>127</v>
       </c>
@@ -17577,7 +17581,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
     </row>
-    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>170</v>
       </c>
@@ -17618,7 +17622,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
     </row>
-    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>380</v>
       </c>
@@ -17657,7 +17661,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="15"/>
     </row>
-    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>254</v>
       </c>
@@ -17698,7 +17702,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="15"/>
     </row>
-    <row r="33" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>321</v>
       </c>
@@ -17739,7 +17743,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
     </row>
-    <row r="34" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>40</v>
       </c>
@@ -17780,7 +17784,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
     </row>
-    <row r="35" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>329</v>
       </c>
@@ -17821,7 +17825,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="15"/>
     </row>
-    <row r="36" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>233</v>
       </c>
@@ -17862,7 +17866,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="15"/>
     </row>
-    <row r="37" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>137</v>
       </c>
@@ -17903,7 +17907,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="15"/>
     </row>
-    <row r="38" spans="1:15" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
         <v>133</v>
       </c>
@@ -17944,7 +17948,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="15"/>
     </row>
-    <row r="39" spans="1:15" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>370</v>
       </c>
@@ -17983,7 +17987,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="15"/>
     </row>
-    <row r="40" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>368</v>
       </c>
@@ -18022,7 +18026,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="15"/>
     </row>
-    <row r="41" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>335</v>
       </c>
@@ -18063,7 +18067,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="15"/>
     </row>
-    <row r="42" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>145</v>
       </c>
@@ -18104,7 +18108,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="15"/>
     </row>
-    <row r="43" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>359</v>
       </c>
@@ -18143,7 +18147,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="15"/>
     </row>
-    <row r="44" spans="1:15" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" s="7" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>63</v>
       </c>
@@ -18184,7 +18188,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="15"/>
     </row>
-    <row r="45" spans="1:15" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="15" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>222</v>
       </c>
@@ -18223,7 +18227,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="15" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>224</v>
       </c>
@@ -18261,7 +18265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>219</v>
       </c>
@@ -18302,7 +18306,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="15"/>
     </row>
-    <row r="48" spans="1:15" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="15" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>228</v>
       </c>
@@ -18340,7 +18344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" s="15" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>348</v>
       </c>
@@ -18378,7 +18382,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>60</v>
       </c>
@@ -18419,7 +18423,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="15"/>
     </row>
-    <row r="51" spans="1:15" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" s="15" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>342</v>
       </c>
@@ -18458,7 +18462,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" s="15" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>307</v>
       </c>
@@ -18496,7 +18500,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="15" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
         <v>297</v>
       </c>
@@ -18534,7 +18538,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="15" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
         <v>315</v>
       </c>
@@ -18573,7 +18577,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="15" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>310</v>
       </c>
@@ -18611,7 +18615,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="15" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>294</v>
       </c>
@@ -18649,7 +18653,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" s="15" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>313</v>
       </c>
@@ -18687,7 +18691,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" s="15" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
         <v>413</v>
       </c>
@@ -18726,7 +18730,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" s="15" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
         <v>417</v>
       </c>
@@ -18765,7 +18769,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" s="15" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
         <v>419</v>
       </c>
@@ -18804,7 +18808,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" s="15" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
         <v>202</v>
       </c>
@@ -18842,7 +18846,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" s="15" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
         <v>218</v>
       </c>
@@ -18918,7 +18922,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" s="15" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
         <v>212</v>
       </c>
@@ -18956,7 +18960,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="65" spans="1:13" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" s="15" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
         <v>302</v>
       </c>
@@ -18995,7 +18999,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" s="15" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
         <v>140</v>
       </c>
@@ -19033,7 +19037,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" s="15" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
         <v>82</v>
       </c>
@@ -19146,7 +19150,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" s="15" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
         <v>71</v>
       </c>
@@ -19185,7 +19189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" s="15" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
         <v>118</v>
       </c>
@@ -19224,7 +19228,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:13" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" s="15" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
         <v>80</v>
       </c>
@@ -19262,7 +19266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" s="15" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
         <v>206</v>
       </c>
@@ -19300,7 +19304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" s="15" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
         <v>211</v>
       </c>
@@ -19338,7 +19342,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" s="15" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
         <v>347</v>
       </c>
@@ -19377,7 +19381,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" s="15" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
         <v>346</v>
       </c>
@@ -19416,7 +19420,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" s="23" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
         <v>159</v>
       </c>
@@ -19455,7 +19459,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
         <v>55</v>
       </c>
@@ -19494,7 +19498,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
         <v>116</v>
       </c>
@@ -19533,7 +19537,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
         <v>154</v>
       </c>
@@ -19572,7 +19576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
         <v>124</v>
       </c>
@@ -19611,7 +19615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
         <v>291</v>
       </c>
@@ -19649,7 +19653,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="23" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" s="23" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
         <v>305</v>
       </c>
@@ -19688,7 +19692,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="23" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" s="23" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
         <v>319</v>
       </c>
@@ -19727,7 +19731,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" s="23" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
         <v>95</v>
       </c>
@@ -19766,7 +19770,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:15" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" s="23" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
         <v>236</v>
       </c>
@@ -19804,7 +19808,7 @@
       <c r="N86" s="25"/>
       <c r="O86" s="25"/>
     </row>
-    <row r="87" spans="1:15" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" s="25" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
         <v>34</v>
       </c>
@@ -19839,7 +19843,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="88" spans="1:15" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" s="25" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="23" t="s">
         <v>432</v>
       </c>
@@ -19874,7 +19878,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="89" spans="1:15" s="25" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" s="25" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
         <v>105</v>
       </c>
@@ -19912,6 +19916,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M89" xr:uid="{3E33B360-02B2-431A-9C72-00D27FB0981C}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Coastal Defense Patrol"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M89">
       <sortCondition ref="I1:I89"/>
     </sortState>
